--- a/TheTrial/Docs/ProgressTracking.xlsx
+++ b/TheTrial/Docs/ProgressTracking.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\TheTrial\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9525F2F-C542-4673-979A-1355DA35A494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BEA04-B9AB-47B5-9A7F-509C922C1A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{603EAEDC-D363-457D-B800-748B64D3B649}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{603EAEDC-D363-457D-B800-748B64D3B649}"/>
   </bookViews>
   <sheets>
-    <sheet name="Journal" sheetId="3" r:id="rId1"/>
+    <sheet name="Milestones" sheetId="4" r:id="rId1"/>
     <sheet name="Sprints" sheetId="2" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="1" r:id="rId3"/>
+    <sheet name="Journal" sheetId="3" r:id="rId3"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="168">
   <si>
     <t>Task ID</t>
   </si>
@@ -259,37 +260,286 @@
     <t>Create projectile class that is used by abilities</t>
   </si>
   <si>
+    <t>Start Date:</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>3, 16</t>
+  </si>
+  <si>
+    <t>Sprint 2 Planning</t>
+  </si>
+  <si>
+    <t>Reevaluate Milestones and Features</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Deep Learning:</t>
+  </si>
+  <si>
+    <t>The issue that I had over the course of this milestone was finding the motivation and time to sit down and work on the project. As the deadline approached I got more on the screen it felt easier to want to work on it. Moving forward it will be important to time manage better. Another thing that I found to be an issue was my task planning. When I did my initial task planning I forgot about a lot of things and definitely overscoped the project. Moving forward at the start of the next milestone I am going to take a look at the features list and milestones to reassess what it is I want to accomplish for each. Upon completing the reassessment I will be able to fully plan out the next sprint.</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Explore posibilities of vector art</t>
+  </si>
+  <si>
+    <t>Explore posibilities of using sprite art</t>
+  </si>
+  <si>
+    <t>Create World class to manage maps</t>
+  </si>
+  <si>
+    <t>Create Map Class to hold tiled map</t>
+  </si>
+  <si>
+    <t>Create tile struct to hold tile definitions</t>
+  </si>
+  <si>
+    <t>Create tile definitions read in from XML</t>
+  </si>
+  <si>
+    <t>Update game management to to World-&gt;Map-&gt;Entites</t>
+  </si>
+  <si>
+    <t>Draw Tiles on screen with test texture</t>
+  </si>
+  <si>
+    <t>Draw Tiles on screen with tile def textures</t>
+  </si>
+  <si>
+    <t>Debug existing SpriteSheet class</t>
+  </si>
+  <si>
+    <t>Add Simple Physics to map to not allow player to move through solid tiles</t>
+  </si>
+  <si>
+    <t>Create Cursor SpriteSheet</t>
+  </si>
+  <si>
+    <t>Update cursor logic to exist withing a Cursor class</t>
+  </si>
+  <si>
+    <t>Add different states to cursor</t>
+  </si>
+  <si>
+    <t>Update Cursor logic to allow easier modification</t>
+  </si>
+  <si>
+    <t>Update Player logic to allow for easier modification</t>
+  </si>
+  <si>
+    <t>Update entities to render sprites</t>
+  </si>
+  <si>
+    <t>Animate Player actions</t>
+  </si>
+  <si>
+    <t>Find an effective way to use external sprite sheets not in out typical format</t>
+  </si>
+  <si>
+    <t>Realign Ability boxes and text</t>
+  </si>
+  <si>
+    <t>Get sprites to use in game</t>
+  </si>
+  <si>
+    <t>Add attack move cursor state</t>
+  </si>
+  <si>
+    <t>Add player attack move state</t>
+  </si>
+  <si>
+    <t>Add a raycast for line of sight logic</t>
+  </si>
+  <si>
+    <t>Add Map::PathFromLocationToPoint</t>
+  </si>
+  <si>
+    <t>Get Audio assets for: BGM, PlayerAttack, EnemyAttack, pick up Item</t>
+  </si>
+  <si>
+    <t>Implement playing audio on actions</t>
+  </si>
+  <si>
+    <t>Creat UI button for menus</t>
+  </si>
+  <si>
+    <t>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</t>
+  </si>
+  <si>
+    <t>Create main menu</t>
+  </si>
+  <si>
+    <t>Create pause menu</t>
+  </si>
+  <si>
+    <t>Add SFX volume control to menus</t>
+  </si>
+  <si>
+    <t>Add BGM volume control to menus</t>
+  </si>
+  <si>
+    <t>Create a debugDraw button</t>
+  </si>
+  <si>
+    <t>Added Milestone 1</t>
+  </si>
+  <si>
+    <t>Added Milestone 2</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Start Date:</t>
-  </si>
-  <si>
-    <t>End Date:</t>
-  </si>
-  <si>
-    <t>3, 16</t>
-  </si>
-  <si>
-    <t>Sprint 2 Planning</t>
-  </si>
-  <si>
-    <t>Reevaluate Milestones and Features</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Deep Learning:</t>
-  </si>
-  <si>
-    <t>The issue that I had over the course of this milestone was finding the motivation and time to sit down and work on the project. As the deadline approached I got more on the screen it felt easier to want to work on it. Moving forward it will be important to time manage better. Another thing that I found to be an issue was my task planning. When I did my initial task planning I forgot about a lot of things and definitely overscoped the project. Moving forward at the start of the next milestone I am going to take a look at the features list and milestones to reassess what it is I want to accomplish for each. Upon completing the reassessment I will be able to fully plan out the next sprint.</t>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Milestone 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player Character </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity </t>
+  </si>
+  <si>
+    <t>Player controlled character the inherits from entity</t>
+  </si>
+  <si>
+    <t>Can use 4 abilities via key bindings that are chosen from a selection</t>
+  </si>
+  <si>
+    <t>Can dash using 'Spacebar'</t>
+  </si>
+  <si>
+    <t>Abilites are read in through an XML format</t>
+  </si>
+  <si>
+    <t>are a resource that is gained and kept from run to run</t>
+  </si>
+  <si>
+    <t>are a resource that is gained through a run</t>
+  </si>
+  <si>
+    <t>An item will uniquely boost an entity's stats</t>
+  </si>
+  <si>
+    <t>Each item has a unique active ability</t>
+  </si>
+  <si>
+    <t>Items are created from an XML document</t>
+  </si>
+  <si>
+    <t>Inherited from entity class</t>
+  </si>
+  <si>
+    <t>is a base class for Enemies and Player character that holds stats, abilities, and Items</t>
+  </si>
+  <si>
+    <t>Can have up to 4 abilities</t>
+  </si>
+  <si>
+    <t>Can store an "infinite" amount of items</t>
+  </si>
+  <si>
+    <t>Same Items stack and only give one active</t>
+  </si>
+  <si>
+    <t>Updated Milestone 2</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Generate Map from sprite sheet</t>
+  </si>
+  <si>
+    <t>Animate Player Character</t>
+  </si>
+  <si>
+    <t>Draw Player Character as Sprite</t>
+  </si>
+  <si>
+    <t>Draw Map with tile</t>
+  </si>
+  <si>
+    <t>Generate Map fom png</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Spawn player on map at specified location</t>
+  </si>
+  <si>
+    <t>Determine direction to go with visuals</t>
+  </si>
+  <si>
+    <t>Updated Milestone 3</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Generate Items from XML</t>
+  </si>
+  <si>
+    <t>Item class</t>
+  </si>
+  <si>
+    <t>Can pick up dropped Items</t>
+  </si>
+  <si>
+    <t>Chance to drop item on death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavior to attack player </t>
+  </si>
+  <si>
+    <t>Pathing on map for player and enemy</t>
+  </si>
+  <si>
+    <t>Add SFX and BGM</t>
+  </si>
+  <si>
+    <t>Menu flows are established</t>
+  </si>
+  <si>
+    <t>UI/Audio</t>
+  </si>
+  <si>
+    <t>Control Sound volumes from menu</t>
+  </si>
+  <si>
+    <t>Create buttons that the player can interact with and change the state of the game</t>
+  </si>
+  <si>
+    <t>Having a plan going into a sprint is very important to creating motivation for doing work. Without a clear goal I found it hard to find motivation to do work. Once I planned out some of my goals/tasks I found it easier to work on things and I started to want to add different features. More thorough time tracking throughout the sprint will be better for accurate time estimate and completion comparisons</t>
   </si>
 </sst>
 </file>
@@ -313,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +588,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -508,11 +770,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -634,11 +916,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -666,6 +995,126 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -831,6 +1280,43 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -846,36 +1332,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1248,11 +1704,2429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B1D0D5-8BE9-4C2F-A748-65963B5C1812}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24419E7A-05E7-46A5-8D47-0600B34158C9}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="72"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="73"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="74"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D356B3F-B2FC-4492-B6C6-3B09C1815C2E}">
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.7109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="91.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="47">
+        <v>43984</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="47">
+        <v>43997</v>
+      </c>
+      <c r="F2" s="45" t="str">
+        <f>"Total Hours Completed: " &amp; SUM($D$4:$D$27)</f>
+        <v>Total Hours Completed: 16.25</v>
+      </c>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" s="40" customFormat="1" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="str">
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C4" s="28">
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="28">
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="28">
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>18</v>
+      </c>
+      <c r="F4" s="31" t="str">
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Ability class</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28" t="str">
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C5" s="28">
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="28">
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.75</v>
+      </c>
+      <c r="E5" s="28">
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>16</v>
+      </c>
+      <c r="F5" s="31" t="str">
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement an XML format to create abilities</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28" t="str">
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C6" s="28">
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="28">
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>19</v>
+      </c>
+      <c r="F6" s="31" t="str">
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Item class</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="str">
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C7" s="28">
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="28">
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>22</v>
+      </c>
+      <c r="F7" s="31" t="str">
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement an XML format to create items</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="str">
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C8" s="28">
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="28">
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="28">
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>18</v>
+      </c>
+      <c r="F8" s="31" t="str">
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create projectile class that is used by abilities</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28" t="str">
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C9" s="28">
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="28">
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="28">
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>32</v>
+      </c>
+      <c r="F9" s="31" t="str">
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create entity class</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28" t="str">
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C10" s="28">
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="28">
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="28">
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>33</v>
+      </c>
+      <c r="F10" s="31" t="str">
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>allow entities to hold up to 4 abilities</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="28" t="str">
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C11" s="28">
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="28">
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>34</v>
+      </c>
+      <c r="F11" s="31" t="str">
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Allow entities to hold an "infinite" number of items</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="28" t="str">
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C12" s="28">
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="28">
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>35</v>
+      </c>
+      <c r="F12" s="31" t="str">
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="28" t="str">
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C13" s="28">
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="28">
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="28">
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="str">
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create a player character class that inherits entity class</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="28" t="str">
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C14" s="28">
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="28">
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="28">
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="31" t="str">
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement ability to control player character via mouse</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="28" t="str">
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C15" s="28">
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="28">
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="31" t="str">
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement ability for player to use abilities</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="28" t="str">
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Deleted</v>
+      </c>
+      <c r="C16" s="28">
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="28">
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>7</v>
+      </c>
+      <c r="F16" s="31" t="str">
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement dodge dash</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="28" t="str">
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C17" s="28">
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="28">
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>20</v>
+      </c>
+      <c r="F17" s="31" t="str">
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement item stats that effect the entity if held</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="28" t="str">
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Deleted</v>
+      </c>
+      <c r="C18" s="28">
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="28">
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="28">
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>21</v>
+      </c>
+      <c r="F18" s="31" t="str">
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement item actives</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="28" t="str">
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Deleted</v>
+      </c>
+      <c r="C19" s="28">
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="28">
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>21</v>
+      </c>
+      <c r="F19" s="31" t="str">
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement the ability for the player to use equipped item actives</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="28" t="str">
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C20" s="28">
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="28">
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="28">
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>31</v>
+      </c>
+      <c r="F20" s="31" t="str">
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create an enemy class that inherits from entity</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>28</v>
+      </c>
+      <c r="B21" s="32" t="str">
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C21" s="32">
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="32">
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="32">
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>45</v>
+      </c>
+      <c r="F21" s="33" t="str">
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create an in game player health bar UI element</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" s="28" t="str">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C22" s="28">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="28">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="28">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>48</v>
+      </c>
+      <c r="F22" s="31" t="str">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create an in game enemy health bar UI element</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="28" t="str">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C23" s="28">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="28">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="28">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>46</v>
+      </c>
+      <c r="F23" s="31" t="str">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create an in game ability bar Ui that shows cooldowns for all equipped abilities</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>56</v>
+      </c>
+      <c r="B24" s="28" t="str">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C24" s="28">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="28">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="28" t="str">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>3, 16</v>
+      </c>
+      <c r="F24" s="31" t="str">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement Blink Ability type</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>57</v>
+      </c>
+      <c r="B25" s="28" t="str">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C25" s="28">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="28">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="28" t="str">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>3, 16</v>
+      </c>
+      <c r="F25" s="31" t="str">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement Buff Ability type</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="B26" s="28" t="str">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C26" s="28">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="28">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="28">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="31" t="str">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Give the player the ability to attack the enemies (basic attack)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>61</v>
+      </c>
+      <c r="B27" s="34" t="str">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C27" s="34">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="34">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="34">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>16</v>
+      </c>
+      <c r="F27" s="35" t="str">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create a method to create abilities from definitions</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="38">
+        <v>43998</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="38">
+        <v>44011</v>
+      </c>
+      <c r="F29" s="36" t="str">
+        <f>"Total Hours Completed: " &amp; SUM(D31:D55)</f>
+        <v>Total Hours Completed: 18.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="40" customFormat="1" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>63</v>
+      </c>
+      <c r="B31" s="28" t="str">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C31" s="28">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="28">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="28" t="str">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F31" s="31" t="str">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Reevaluate Milestones and Features</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>62</v>
+      </c>
+      <c r="B32" s="28" t="str">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C32" s="28">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="28">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="28" t="str">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F32" s="31" t="str">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Sprint 2 Planning</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39</v>
+      </c>
+      <c r="B33" s="28" t="str">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C33" s="28">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="28">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="28">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>24</v>
+      </c>
+      <c r="F33" s="31" t="str">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement room generation based on png files</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45</v>
+      </c>
+      <c r="B34" s="28" t="str">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>In Progress</v>
+      </c>
+      <c r="C34" s="28">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="28">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E34" s="28">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>36</v>
+      </c>
+      <c r="F34" s="31" t="str">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>64</v>
+      </c>
+      <c r="B35" s="28" t="str">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C35" s="28">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="28">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="28" t="str">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F35" s="31" t="str">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Explore posibilities of vector art</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>65</v>
+      </c>
+      <c r="B36" s="28" t="str">
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C36" s="28">
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="28">
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="28" t="str">
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F36" s="31" t="str">
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Explore posibilities of using sprite art</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>66</v>
+      </c>
+      <c r="B37" s="28" t="str">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C37" s="28">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="28">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="28" t="str">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F37" s="31" t="str">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Get sprites to use in game</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>67</v>
+      </c>
+      <c r="B38" s="28" t="str">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C38" s="28">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="28">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="28" t="str">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F38" s="31" t="str">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create World class to manage maps</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>68</v>
+      </c>
+      <c r="B39" s="28" t="str">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C39" s="28">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="28">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="28" t="str">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F39" s="31" t="str">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Map Class to hold tiled map</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>69</v>
+      </c>
+      <c r="B40" s="28" t="str">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C40" s="28">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="28">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="28" t="str">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F40" s="31" t="str">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create tile struct to hold tile definitions</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>70</v>
+      </c>
+      <c r="B41" s="28" t="str">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C41" s="28">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="28">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E41" s="28" t="str">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F41" s="31" t="str">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create tile definitions read in from XML</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>71</v>
+      </c>
+      <c r="B42" s="28" t="str">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C42" s="28">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="28">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="28" t="str">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F42" s="31" t="str">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update game management to to World-&gt;Map-&gt;Entites</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>72</v>
+      </c>
+      <c r="B43" s="28" t="str">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C43" s="28">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="28">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="28" t="str">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F43" s="31" t="str">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Draw Tiles on screen with test texture</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>73</v>
+      </c>
+      <c r="B44" s="28" t="str">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C44" s="28">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="28">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="28" t="str">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F44" s="31" t="str">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Draw Tiles on screen with tile def textures</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>74</v>
+      </c>
+      <c r="B45" s="28" t="str">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C45" s="28">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="28">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="28" t="str">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F45" s="31" t="str">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create a debugDraw button</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>76</v>
+      </c>
+      <c r="B46" s="28" t="str">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Deleted</v>
+      </c>
+      <c r="C46" s="28">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D46" s="28">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="28" t="str">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F46" s="31" t="str">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add Simple Physics to map to not allow player to move through solid tiles</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>78</v>
+      </c>
+      <c r="B47" s="28" t="str">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C47" s="28">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="28">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="28" t="str">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F47" s="31" t="str">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update cursor logic to exist withing a Cursor class</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>79</v>
+      </c>
+      <c r="B48" s="28" t="str">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C48" s="28">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="28">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E48" s="28" t="str">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F48" s="31" t="str">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add different states to cursor</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>80</v>
+      </c>
+      <c r="B49" s="28" t="str">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C49" s="28">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="28">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="28" t="str">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F49" s="31" t="str">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update Cursor logic to allow easier modification</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>81</v>
+      </c>
+      <c r="B50" s="28" t="str">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C50" s="28">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="28">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="28" t="str">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F50" s="31" t="str">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update Player logic to allow for easier modification</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>82</v>
+      </c>
+      <c r="B51" s="28" t="str">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C51" s="28">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D51" s="28">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="28" t="str">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F51" s="31" t="str">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update entities to render sprites</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56">
+        <v>75</v>
+      </c>
+      <c r="B52" s="32" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C52" s="32">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="32">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E52" s="32" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F52" s="33" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Debug existing SpriteSheet class</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>77</v>
+      </c>
+      <c r="B53" s="28" t="str">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C53" s="28">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="28">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="28" t="str">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F53" s="31" t="str">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Cursor SpriteSheet</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>83</v>
+      </c>
+      <c r="B54" s="28" t="str">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C54" s="28">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="28">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="28" t="str">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F54" s="31" t="str">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Animate Player actions</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>84</v>
+      </c>
+      <c r="B55" s="28" t="str">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C55" s="28">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="28">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="28" t="str">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F55" s="31" t="str">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Find an effective way to use external sprite sheets not in out typical format</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="57" customFormat="1" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="61">
+        <v>44012</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="61">
+        <v>44025</v>
+      </c>
+      <c r="F57" s="59" t="str">
+        <f>"Total Hours Completed: " &amp; SUM(D58:D82)</f>
+        <v>Total Hours Completed: 0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" s="28" t="str">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C58" s="28">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="28">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="28">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>19</v>
+      </c>
+      <c r="F58" s="31" t="str">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Item class</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="28" t="str">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C59" s="28">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="28">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="28">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>22</v>
+      </c>
+      <c r="F59" s="31" t="str">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement an XML format to create items</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>8</v>
+      </c>
+      <c r="B60" s="28" t="str">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C60" s="28">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="D60" s="28">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="28">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>34</v>
+      </c>
+      <c r="F60" s="31" t="str">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Allow entities to hold an "infinite" number of items</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>9</v>
+      </c>
+      <c r="B61" s="28" t="str">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C61" s="28">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="28">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="28">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>35</v>
+      </c>
+      <c r="F61" s="31" t="str">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>14</v>
+      </c>
+      <c r="B62" s="28" t="str">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C62" s="28">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="28">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="28">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>20</v>
+      </c>
+      <c r="F62" s="31" t="str">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement item stats that effect the entity if held</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>24</v>
+      </c>
+      <c r="B63" s="28" t="str">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C63" s="28">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="28">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="28">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>3</v>
+      </c>
+      <c r="F63" s="31" t="str">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create a menu that allows the player to choose 3 abilites from a catalog of abilities</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>33</v>
+      </c>
+      <c r="B64" s="28" t="str">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>29</v>
+      </c>
+      <c r="F64" s="31" t="str">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create quick ranged weak enemy type</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>35</v>
+      </c>
+      <c r="B65" s="28" t="str">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C65" s="28">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="28">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="28">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>29</v>
+      </c>
+      <c r="F65" s="31" t="str">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create quick melee weak enemy type</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44</v>
+      </c>
+      <c r="B66" s="28" t="str">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C66" s="28">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D66" s="28">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="28">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>38</v>
+      </c>
+      <c r="F66" s="31" t="str">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement the ability for the player to pick up items by running over them</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45</v>
+      </c>
+      <c r="B67" s="28" t="str">
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>In Progress</v>
+      </c>
+      <c r="C67" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="D67" s="28">
+        <v>0</v>
+      </c>
+      <c r="E67" s="28">
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>36</v>
+      </c>
+      <c r="F67" s="31" t="str">
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>46</v>
+      </c>
+      <c r="B68" s="28" t="str">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C68" s="28">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="28">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="28">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>36</v>
+      </c>
+      <c r="F68" s="31" t="str">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement functionality for the player to return to the main menu upon losing all of their health</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>47</v>
+      </c>
+      <c r="B69" s="28" t="str">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C69" s="28">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D69" s="28">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="28">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>39</v>
+      </c>
+      <c r="F69" s="31" t="str">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Increase enemy stats for every level</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>51</v>
+      </c>
+      <c r="B70" s="28" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C70" s="28">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D70" s="28">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="28">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>37</v>
+      </c>
+      <c r="F70" s="31" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Write save state to XML (save unlocked abilities and stat set EXP)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>52</v>
+      </c>
+      <c r="B71" s="28" t="str">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C71" s="28">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="28">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="28">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>37</v>
+      </c>
+      <c r="F71" s="31" t="str">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Read game save state from XML</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>58</v>
+      </c>
+      <c r="B72" s="28" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C72" s="28">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D72" s="28">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="28" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>3, 16</v>
+      </c>
+      <c r="F72" s="31" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement Projectile Ability type</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>59</v>
+      </c>
+      <c r="B73" s="28" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C73" s="28">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="28">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="28" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>3, 16</v>
+      </c>
+      <c r="F73" s="31" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement targeted ability type</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>86</v>
+      </c>
+      <c r="B74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C74" s="28">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D74" s="28">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F74" s="31" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add attack move cursor state</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>87</v>
+      </c>
+      <c r="B75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C75" s="28">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D75" s="28">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F75" s="31" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add player attack move state</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>88</v>
+      </c>
+      <c r="B76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C76" s="28">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D76" s="28">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F76" s="31" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add a raycast for line of sight logic</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>89</v>
+      </c>
+      <c r="B77" s="28" t="str">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C77" s="28">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>3</v>
+      </c>
+      <c r="D77" s="28">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="28" t="str">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F77" s="31" t="str">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add Map::PathFromLocationToPoint</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>90</v>
+      </c>
+      <c r="B78" s="28" t="str">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C78" s="28">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D78" s="28">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="28" t="str">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F78" s="31" t="str">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Get Audio assets for: BGM, PlayerAttack, EnemyAttack, pick up Item</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>91</v>
+      </c>
+      <c r="B79" s="28" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C79" s="28">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D79" s="28">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="28" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F79" s="31" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement playing audio on actions</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>92</v>
+      </c>
+      <c r="B80" s="28" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C80" s="28">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D80" s="28">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="28" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F80" s="31" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Creat UI button for menus</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>93</v>
+      </c>
+      <c r="B81" s="28" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C81" s="28">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D81" s="28">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="28" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F81" s="31" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>94</v>
+      </c>
+      <c r="B82" s="28" t="str">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C82" s="28">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D82" s="28">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="28" t="str">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F82" s="31" t="str">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create main menu</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>95</v>
+      </c>
+      <c r="B83" s="28" t="str">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C83" s="28">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D83" s="28">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="28" t="str">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F83" s="31" t="str">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create pause menu</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>96</v>
+      </c>
+      <c r="B84" s="28" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C84" s="28">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="28">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="28" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F84" s="31" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add SFX volume control to menus</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>97</v>
+      </c>
+      <c r="B85" s="28" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C85" s="28">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="28">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="28" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F85" s="31" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add BGM volume control to menus</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B3 B29:B30">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F4 B4:B28">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B55">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F85">
+    <cfRule type="expression" dxfId="34" priority="7">
+      <formula>$B1="Deleted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B85">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B1D0D5-8BE9-4C2F-A748-65963B5C1812}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +4157,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="42">
         <v>43988</v>
@@ -1301,21 +4175,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="28">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D3" s="28">
         <v>0.75</v>
       </c>
       <c r="E3" s="28">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F3" s="31" t="str">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -1324,23 +4198,23 @@
         <v>6</v>
       </c>
       <c r="B4" s="28" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>32</v>
       </c>
       <c r="F4" s="31" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create entity class</v>
       </c>
     </row>
@@ -1349,23 +4223,23 @@
         <v>7</v>
       </c>
       <c r="B5" s="28" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>33</v>
       </c>
       <c r="F5" s="31" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>allow entities to hold up to 4 abilities</v>
       </c>
     </row>
@@ -1374,23 +4248,23 @@
         <v>10</v>
       </c>
       <c r="B6" s="28" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>2.5</v>
       </c>
       <c r="D6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="F6" s="31" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create a player character class that inherits entity class</v>
       </c>
     </row>
@@ -1399,23 +4273,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="28" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F7" s="31" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Implement ability to control player character via mouse</v>
       </c>
     </row>
@@ -1424,23 +4298,23 @@
         <v>12</v>
       </c>
       <c r="B8" s="28" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F8" s="31" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Implement ability for player to use abilities</v>
       </c>
     </row>
@@ -1449,23 +4323,23 @@
         <v>30</v>
       </c>
       <c r="B9" s="28" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>46</v>
       </c>
       <c r="F9" s="31" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create an in game ability bar Ui that shows cooldowns for all equipped abilities</v>
       </c>
     </row>
@@ -1474,29 +4348,29 @@
         <v>56</v>
       </c>
       <c r="B10" s="28" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F10" s="31" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Implement Blink Ability type</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="42">
         <v>43997</v>
@@ -1514,21 +4388,21 @@
         <v>1</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D12" s="28">
         <v>0.75</v>
       </c>
       <c r="E12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F12" s="31" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -1537,23 +4411,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="28" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1.75</v>
       </c>
       <c r="E13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F13" s="31" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Implement an XML format to create abilities</v>
       </c>
     </row>
@@ -1562,23 +4436,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F14" s="31" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create projectile class that is used by abilities</v>
       </c>
     </row>
@@ -1587,23 +4461,23 @@
         <v>17</v>
       </c>
       <c r="B15" s="28" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>31</v>
       </c>
       <c r="F15" s="31" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create an enemy class that inherits from entity</v>
       </c>
     </row>
@@ -1612,23 +4486,23 @@
         <v>28</v>
       </c>
       <c r="B16" s="28" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>45</v>
       </c>
       <c r="F16" s="31" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create an in game player health bar UI element</v>
       </c>
     </row>
@@ -1637,23 +4511,23 @@
         <v>29</v>
       </c>
       <c r="B17" s="28" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>48</v>
       </c>
       <c r="F17" s="31" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create an in game enemy health bar UI element</v>
       </c>
     </row>
@@ -1662,23 +4536,23 @@
         <v>57</v>
       </c>
       <c r="B18" s="28" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F18" s="31" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Implement Buff Ability type</v>
       </c>
     </row>
@@ -1687,23 +4561,23 @@
         <v>60</v>
       </c>
       <c r="B19" s="28" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="F19" s="31" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Give the player the ability to attack the enemies (basic attack)</v>
       </c>
     </row>
@@ -1712,79 +4586,902 @@
         <v>61</v>
       </c>
       <c r="B20" s="28" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$62, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$63, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F20" s="31" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
         <v>Create a method to create abilities from definitions</v>
       </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="42">
+        <v>44005</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D22:D35)</f>
+        <v>Hours Worked: 9.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>63</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="28">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="28" t="str">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F22" s="31" t="str">
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Reevaluate Milestones and Features</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>62</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="28">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="28" t="str">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F23" s="31" t="str">
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Sprint 2 Planning</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="28">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="28">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>24</v>
+      </c>
+      <c r="F24" s="31" t="str">
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement room generation based on png files</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="str">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C25" s="28">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="28">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="28" t="str">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F25" s="31" t="str">
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Explore posibilities of vector art</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>65</v>
+      </c>
+      <c r="B26" s="28" t="str">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C26" s="28">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="28">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="28" t="str">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F26" s="31" t="str">
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Explore posibilities of using sprite art</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>66</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="28">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28" t="str">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F27" s="31" t="str">
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Get sprites to use in game</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>67</v>
+      </c>
+      <c r="B28" s="28" t="str">
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C28" s="28">
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="28">
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="28" t="str">
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F28" s="31" t="str">
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create World class to manage maps</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>68</v>
+      </c>
+      <c r="B29" s="28" t="str">
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C29" s="28">
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="28">
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="28" t="str">
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F29" s="31" t="str">
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Map Class to hold tiled map</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>69</v>
+      </c>
+      <c r="B30" s="28" t="str">
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C30" s="28">
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="28">
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="28" t="str">
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F30" s="31" t="str">
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create tile struct to hold tile definitions</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>70</v>
+      </c>
+      <c r="B31" s="28" t="str">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C31" s="28">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="28">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="28" t="str">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F31" s="31" t="str">
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create tile definitions read in from XML</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>72</v>
+      </c>
+      <c r="B32" s="28" t="str">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C32" s="28">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="28">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="28" t="str">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F32" s="31" t="str">
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Draw Tiles on screen with test texture</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>73</v>
+      </c>
+      <c r="B33" s="28" t="str">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C33" s="28">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="28">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="28" t="str">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F33" s="31" t="str">
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Draw Tiles on screen with tile def textures</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>74</v>
+      </c>
+      <c r="B34" s="28" t="str">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C34" s="28">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="28">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="28" t="str">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F34" s="31" t="str">
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create a debugDraw button</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>75</v>
+      </c>
+      <c r="B35" s="28" t="str">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C35" s="28">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="28">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="28" t="str">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F35" s="31" t="str">
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Debug existing SpriteSheet class</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="42">
+        <v>44011</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D37:D50)</f>
+        <v>Hours Worked: 9.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>63</v>
+      </c>
+      <c r="B37" s="28" t="str">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C37" s="28">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="28" t="str">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F37" s="31" t="str">
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Reevaluate Milestones and Features</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>62</v>
+      </c>
+      <c r="B38" s="28" t="str">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C38" s="28">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="28" t="str">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F38" s="31" t="str">
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Sprint 2 Planning</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="28" t="str">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C39" s="28">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D39" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="28">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>24</v>
+      </c>
+      <c r="F39" s="31" t="str">
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement room generation based on png files</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="28">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="28">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="28">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>36</v>
+      </c>
+      <c r="F40" s="31" t="str">
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>66</v>
+      </c>
+      <c r="B41" s="28" t="str">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C41" s="28">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="28">
+        <v>1</v>
+      </c>
+      <c r="E41" s="28" t="str">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F41" s="31" t="str">
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Get sprites to use in game</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>71</v>
+      </c>
+      <c r="B42" s="28" t="str">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C42" s="28">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="28">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="28" t="str">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F42" s="31" t="str">
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update game management to to World-&gt;Map-&gt;Entites</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>78</v>
+      </c>
+      <c r="B43" s="28" t="str">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C43" s="28">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="28">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="28" t="str">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F43" s="31" t="str">
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update cursor logic to exist withing a Cursor class</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>79</v>
+      </c>
+      <c r="B44" s="28" t="str">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C44" s="28">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="28">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="28" t="str">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F44" s="31" t="str">
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Add different states to cursor</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45" s="28" t="str">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C45" s="28">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="28">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="28" t="str">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F45" s="31" t="str">
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update Cursor logic to allow easier modification</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>81</v>
+      </c>
+      <c r="B46" s="28" t="str">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C46" s="28">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="28">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="28" t="str">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F46" s="31" t="str">
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update Player logic to allow for easier modification</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>82</v>
+      </c>
+      <c r="B47" s="28" t="str">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C47" s="28">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D47" s="28">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="28" t="str">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F47" s="31" t="str">
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Update entities to render sprites</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>77</v>
+      </c>
+      <c r="B48" s="28" t="str">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C48" s="28">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="28">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="28" t="str">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F48" s="31" t="str">
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Create Cursor SpriteSheet</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>83</v>
+      </c>
+      <c r="B49" s="28" t="str">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C49" s="28">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="28">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E49" s="28" t="str">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F49" s="31" t="str">
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Animate Player actions</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>84</v>
+      </c>
+      <c r="B50" s="28" t="str">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C50" s="28">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="28">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="28" t="str">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F50" s="31" t="str">
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v>Find an effective way to use external sprite sheets not in out typical format</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="28" t="str">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="C51" s="28" t="str">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28" t="str">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="F51" s="31" t="str">
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="28" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="C52" s="28" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="F52" s="31" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+  <conditionalFormatting sqref="B3:B10 B22:B35">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B20">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:B57">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1792,1013 +5489,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D356B3F-B2FC-4492-B6C6-3B09C1815C2E}">
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="5" width="13.7109375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="71.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="91.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="47">
-        <v>43984</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="47">
-        <v>43997</v>
-      </c>
-      <c r="F2" s="45" t="str">
-        <f>"Total Hours Completed: " &amp; SUM($D$4:$D$27)</f>
-        <v>Total Hours Completed: 16.25</v>
-      </c>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" s="40" customFormat="1" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>18</v>
-      </c>
-      <c r="F4" s="31" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create Ability class</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="28" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>16</v>
-      </c>
-      <c r="F5" s="31" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement an XML format to create abilities</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="28" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>19</v>
-      </c>
-      <c r="F6" s="31" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create Item class</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="28" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>22</v>
-      </c>
-      <c r="F7" s="31" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement an XML format to create items</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="28" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>18</v>
-      </c>
-      <c r="F8" s="31" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create projectile class that is used by abilities</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="28" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1.5</v>
-      </c>
-      <c r="D9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>32</v>
-      </c>
-      <c r="F9" s="31" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create entity class</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="28" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>33</v>
-      </c>
-      <c r="F10" s="31" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>allow entities to hold up to 4 abilities</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="28" t="str">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>34</v>
-      </c>
-      <c r="F11" s="31" t="str">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Allow entities to hold an "infinite" number of items</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="28" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>35</v>
-      </c>
-      <c r="F12" s="31" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="28" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>2.5</v>
-      </c>
-      <c r="D13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="31" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create a player character class that inherits entity class</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="28" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="31" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement ability to control player character via mouse</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="28" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="31" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement ability for player to use abilities</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>7</v>
-      </c>
-      <c r="F16" s="31" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement dodge dash</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="28" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>20</v>
-      </c>
-      <c r="F17" s="31" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement item stats that effect the entity if held</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="28" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>21</v>
-      </c>
-      <c r="F18" s="31" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement item actives</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="28" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>21</v>
-      </c>
-      <c r="F19" s="31" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement the ability for the player to use equipped item actives</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="28" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.75</v>
-      </c>
-      <c r="E20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>31</v>
-      </c>
-      <c r="F20" s="31" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create an enemy class that inherits from entity</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>28</v>
-      </c>
-      <c r="B21" s="32" t="str">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.75</v>
-      </c>
-      <c r="E21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>45</v>
-      </c>
-      <c r="F21" s="33" t="str">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create an in game player health bar UI element</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22" s="28" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>48</v>
-      </c>
-      <c r="F22" s="31" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create an in game enemy health bar UI element</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>30</v>
-      </c>
-      <c r="B23" s="28" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>46</v>
-      </c>
-      <c r="F23" s="31" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create an in game ability bar Ui that shows cooldowns for all equipped abilities</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>56</v>
-      </c>
-      <c r="B24" s="28" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>2</v>
-      </c>
-      <c r="E24" s="28" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>3, 16</v>
-      </c>
-      <c r="F24" s="31" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement Blink Ability type</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>57</v>
-      </c>
-      <c r="B25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>3, 16</v>
-      </c>
-      <c r="F25" s="31" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Implement Buff Ability type</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>60</v>
-      </c>
-      <c r="B26" s="28" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="31" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Give the player the ability to attack the enemies (basic attack)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>61</v>
-      </c>
-      <c r="B27" s="34" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>16</v>
-      </c>
-      <c r="F27" s="35" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Create a method to create abilities from definitions</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="29" customFormat="1" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="38">
-        <v>43998</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="38">
-        <v>44012</v>
-      </c>
-      <c r="F29" s="36" t="str">
-        <f>"Total Hours Completed: " &amp; SUM($F$30:$F$35)</f>
-        <v>Total Hours Completed: 0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>63</v>
-      </c>
-      <c r="B30" s="28" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C30" s="28">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="28">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="28" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>-</v>
-      </c>
-      <c r="F30" s="31" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Reevaluate Milestones and Features</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>62</v>
-      </c>
-      <c r="B31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>-</v>
-      </c>
-      <c r="F31" s="31" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v>Sprint 2 Planning</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F32" s="31" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F33" s="31" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F34" s="31" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F35" s="31" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F36" s="31" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F37" s="31" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F38" s="31" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F39" s="31" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$62, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F40" s="31" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$162, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"Not Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F4 B4:B28">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Not Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"Not Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B40">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Not Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A181A4A-4DDC-43C7-AE99-DE5692A5CCCA}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59:F60"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,7 +5551,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A62" si="0">ROW() - 1</f>
+        <f t="shared" ref="A3:A56" si="0">ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -3081,7 +5778,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C14" s="18">
         <v>1</v>
@@ -3119,7 +5816,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
@@ -3138,7 +5835,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
@@ -3178,7 +5875,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
@@ -3197,7 +5894,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C20" s="20">
         <v>0.5</v>
@@ -3216,7 +5913,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C21" s="20">
         <v>0.5</v>
@@ -3235,7 +5932,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -3254,7 +5951,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C23" s="20">
         <v>1.5</v>
@@ -3273,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C24" s="20">
         <v>1</v>
@@ -3311,7 +6008,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C26" s="20">
         <v>0.5</v>
@@ -3330,7 +6027,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C27" s="20">
         <v>0.5</v>
@@ -3349,7 +6046,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C28" s="20">
         <v>1</v>
@@ -3431,7 +6128,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C32" s="20">
         <v>2</v>
@@ -3450,7 +6147,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C33" s="20">
         <v>0.75</v>
@@ -3564,7 +6261,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C39" s="19">
         <v>2</v>
@@ -3583,12 +6280,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C40" s="20">
         <v>2</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E40" s="13">
         <v>24</v>
       </c>
@@ -3602,7 +6301,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C41" s="20">
         <v>1.5</v>
@@ -3621,7 +6320,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C42" s="20">
         <v>0.5</v>
@@ -3640,7 +6339,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C43" s="20">
         <v>0.5</v>
@@ -3659,7 +6358,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C44" s="20">
         <v>1</v>
@@ -3697,12 +6396,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C46" s="20">
         <v>1</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="16">
+        <v>0.75</v>
+      </c>
       <c r="E46" s="13">
         <v>36</v>
       </c>
@@ -3754,7 +6455,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C49" s="20">
         <v>1</v>
@@ -3773,7 +6474,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C50" s="20">
         <v>2</v>
@@ -3792,7 +6493,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C51" s="20">
         <v>2</v>
@@ -3881,7 +6582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3900,71 +6601,62 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
-        <f t="shared" si="0"/>
+    <row r="57" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="66"/>
+    </row>
+    <row r="58" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <f>ROW() - 2</f>
         <v>56</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B58" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="27">
-        <v>1</v>
-      </c>
-      <c r="D57" s="24">
+      <c r="C58" s="27">
+        <v>1</v>
+      </c>
+      <c r="D58" s="24">
         <v>2</v>
       </c>
-      <c r="E57" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="25" t="s">
+      <c r="E58" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="25" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="18">
-        <v>1</v>
-      </c>
-      <c r="D58" s="16">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f t="shared" ref="A59:A65" si="1">ROW() - 2</f>
+        <v>57</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C59" s="18">
         <v>1</v>
       </c>
-      <c r="D59" s="16"/>
+      <c r="D59" s="16">
+        <v>1</v>
+      </c>
       <c r="E59" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>6</v>
@@ -3974,118 +6666,839 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C61" s="18">
         <v>1</v>
       </c>
-      <c r="D61" s="16">
-        <v>1</v>
+      <c r="D61" s="16"/>
+      <c r="E61" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D62" s="16">
-        <v>2</v>
-      </c>
-      <c r="E62" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="13">
-        <v>1</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>58</v>
+      <c r="C63" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="16">
+        <v>2</v>
+      </c>
+      <c r="E63" s="13">
+        <v>16</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C64" s="13">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8">
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F64" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="13">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="66"/>
+    </row>
+    <row r="67" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <f>ROW() - 3</f>
+        <v>64</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="23">
+        <v>1</v>
+      </c>
+      <c r="D67" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <f t="shared" ref="A68:A100" si="2">ROW() - 3</f>
+        <v>65</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="13">
+        <v>2</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="13">
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
+      <c r="B82" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="13">
+        <v>2</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="69">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
+        <f>ROW() - 3</f>
+        <v>86</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="23">
+        <v>1</v>
+      </c>
+      <c r="D89" s="55"/>
+      <c r="E89" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="13">
+        <v>2</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="13">
+        <v>3</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="13">
+        <v>2</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="13">
+        <v>1</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="16">
-        <f>SUM(C2:C65)</f>
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
+      <c r="D103" s="16">
+        <f>SUM(C2:C101)</f>
+        <v>118.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="16">
-        <f>SUM(D2:D65)</f>
-        <v>16.25</v>
+      <c r="D104" s="16">
+        <f>SUM(D2:D101)</f>
+        <v>35.25</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F100">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B2="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TheTrial/Docs/ProgressTracking.xlsx
+++ b/TheTrial/Docs/ProgressTracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\TheTrial\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BEA04-B9AB-47B5-9A7F-509C922C1A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629474D8-0A45-423F-ADAE-698389860ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{603EAEDC-D363-457D-B800-748B64D3B649}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="172">
   <si>
     <t>Task ID</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Implement the ability to level up a stat set by assigning skill points</t>
   </si>
   <si>
-    <t>Create a menu that allows the player to choose 3 abilites from a catalog of abilities</t>
-  </si>
-  <si>
     <t>Create a menu that allows the player to choose which stat set they want to use</t>
   </si>
   <si>
@@ -540,6 +537,21 @@
   </si>
   <si>
     <t>Having a plan going into a sprint is very important to creating motivation for doing work. Without a clear goal I found it hard to find motivation to do work. Once I planned out some of my goals/tasks I found it easier to work on things and I started to want to add different features. More thorough time tracking throughout the sprint will be better for accurate time estimate and completion comparisons</t>
+  </si>
+  <si>
+    <t>Added Milestone 3</t>
+  </si>
+  <si>
+    <t>Add Ability key to ability UI box</t>
+  </si>
+  <si>
+    <t>Create a menu that allows the player to choose 4 abilites from a catalog of abilities</t>
+  </si>
+  <si>
+    <t>Total Hours: 5</t>
+  </si>
+  <si>
+    <t>Total Hours: 9</t>
   </si>
 </sst>
 </file>
@@ -960,11 +972,198 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1235,6 +1434,43 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1719,268 +1955,268 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="73"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
         <v>144</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
         <v>150</v>
-      </c>
-      <c r="B23" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="74"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
         <v>164</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1990,11 +2226,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D356B3F-B2FC-4492-B6C6-3B09C1815C2E}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31:D49"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2028,23 +2264,23 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="47">
         <v>43984</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="47">
         <v>43997</v>
       </c>
       <c r="F2" s="45" t="str">
         <f>"Total Hours Completed: " &amp; SUM($D$4:$D$27)</f>
-        <v>Total Hours Completed: 16.25</v>
+        <v>Total Hours Completed: 18.5</v>
       </c>
       <c r="G2" s="48"/>
     </row>
@@ -2057,10 +2293,10 @@
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="50" t="s">
         <v>81</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
@@ -2068,23 +2304,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="28" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F4" s="31" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -2093,23 +2329,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.75</v>
       </c>
       <c r="E5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F5" s="31" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement an XML format to create abilities</v>
       </c>
     </row>
@@ -2118,23 +2354,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="28" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>19</v>
       </c>
       <c r="F6" s="31" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Item class</v>
       </c>
     </row>
@@ -2143,23 +2379,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="28" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
       </c>
       <c r="E7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>22</v>
       </c>
       <c r="F7" s="31" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement an XML format to create items</v>
       </c>
     </row>
@@ -2168,23 +2404,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="28" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F8" s="31" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create projectile class that is used by abilities</v>
       </c>
     </row>
@@ -2193,23 +2429,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>32</v>
       </c>
       <c r="F9" s="31" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create entity class</v>
       </c>
     </row>
@@ -2218,23 +2454,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="28" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>33</v>
       </c>
       <c r="F10" s="31" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>allow entities to hold up to 4 abilities</v>
       </c>
     </row>
@@ -2243,23 +2479,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="28" t="str">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
       </c>
       <c r="E11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>34</v>
       </c>
       <c r="F11" s="31" t="str">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Allow entities to hold an "infinite" number of items</v>
       </c>
     </row>
@@ -2268,23 +2504,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="28" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.5</v>
       </c>
       <c r="E12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>35</v>
       </c>
       <c r="F12" s="31" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
       </c>
     </row>
@@ -2293,23 +2529,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="28" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2.5</v>
       </c>
       <c r="D13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="F13" s="31" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create a player character class that inherits entity class</v>
       </c>
     </row>
@@ -2318,23 +2554,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="28" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F14" s="31" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement ability to control player character via mouse</v>
       </c>
     </row>
@@ -2343,23 +2579,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="28" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F15" s="31" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement ability for player to use abilities</v>
       </c>
     </row>
@@ -2368,23 +2604,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="28" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>7</v>
       </c>
       <c r="F16" s="31" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement dodge dash</v>
       </c>
     </row>
@@ -2393,23 +2629,23 @@
         <v>14</v>
       </c>
       <c r="B17" s="28" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
       </c>
       <c r="E17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>20</v>
       </c>
       <c r="F17" s="31" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement item stats that effect the entity if held</v>
       </c>
     </row>
@@ -2418,23 +2654,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="28" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>21</v>
       </c>
       <c r="F18" s="31" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement item actives</v>
       </c>
     </row>
@@ -2443,23 +2679,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="28" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>21</v>
       </c>
       <c r="F19" s="31" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement the ability for the player to use equipped item actives</v>
       </c>
     </row>
@@ -2468,23 +2704,23 @@
         <v>17</v>
       </c>
       <c r="B20" s="28" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>31</v>
       </c>
       <c r="F20" s="31" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an enemy class that inherits from entity</v>
       </c>
     </row>
@@ -2493,23 +2729,23 @@
         <v>28</v>
       </c>
       <c r="B21" s="32" t="str">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>45</v>
       </c>
       <c r="F21" s="33" t="str">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an in game player health bar UI element</v>
       </c>
     </row>
@@ -2518,23 +2754,23 @@
         <v>29</v>
       </c>
       <c r="B22" s="28" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>48</v>
       </c>
       <c r="F22" s="31" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an in game enemy health bar UI element</v>
       </c>
     </row>
@@ -2543,23 +2779,23 @@
         <v>30</v>
       </c>
       <c r="B23" s="28" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>46</v>
       </c>
       <c r="F23" s="31" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an in game ability bar Ui that shows cooldowns for all equipped abilities</v>
       </c>
     </row>
@@ -2568,23 +2804,23 @@
         <v>56</v>
       </c>
       <c r="B24" s="28" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E24" s="28" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F24" s="31" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement Blink Ability type</v>
       </c>
     </row>
@@ -2593,23 +2829,23 @@
         <v>57</v>
       </c>
       <c r="B25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F25" s="31" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement Buff Ability type</v>
       </c>
     </row>
@@ -2618,23 +2854,23 @@
         <v>60</v>
       </c>
       <c r="B26" s="28" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="F26" s="31" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Give the player the ability to attack the enemies (basic attack)</v>
       </c>
     </row>
@@ -2643,23 +2879,23 @@
         <v>61</v>
       </c>
       <c r="B27" s="34" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F27" s="35" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create a method to create abilities from definitions</v>
       </c>
     </row>
@@ -2672,23 +2908,23 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="38">
         <v>43998</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="38">
         <v>44011</v>
       </c>
       <c r="F29" s="36" t="str">
         <f>"Total Hours Completed: " &amp; SUM(D31:D55)</f>
-        <v>Total Hours Completed: 18.75</v>
+        <v>Total Hours Completed: 21.75</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="40" customFormat="1" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2699,10 +2935,10 @@
       <c r="E30" s="71"/>
       <c r="F30" s="2"/>
       <c r="H30" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
@@ -2710,23 +2946,23 @@
         <v>63</v>
       </c>
       <c r="B31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F31" s="31" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Reevaluate Milestones and Features</v>
       </c>
     </row>
@@ -2735,23 +2971,23 @@
         <v>62</v>
       </c>
       <c r="B32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F32" s="31" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Sprint 2 Planning</v>
       </c>
     </row>
@@ -2760,23 +2996,23 @@
         <v>39</v>
       </c>
       <c r="B33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>24</v>
       </c>
       <c r="F33" s="31" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement room generation based on png files</v>
       </c>
     </row>
@@ -2785,23 +3021,23 @@
         <v>45</v>
       </c>
       <c r="B34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>In Progress</v>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0.75</v>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>3.75</v>
       </c>
       <c r="E34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F34" s="31" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
       </c>
     </row>
@@ -2810,23 +3046,23 @@
         <v>64</v>
       </c>
       <c r="B35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F35" s="31" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Explore posibilities of vector art</v>
       </c>
     </row>
@@ -2835,23 +3071,23 @@
         <v>65</v>
       </c>
       <c r="B36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C36" s="28">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D36" s="28">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F36" s="31" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Explore posibilities of using sprite art</v>
       </c>
     </row>
@@ -2860,23 +3096,23 @@
         <v>66</v>
       </c>
       <c r="B37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C37" s="28">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D37" s="28">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F37" s="31" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Get sprites to use in game</v>
       </c>
     </row>
@@ -2885,23 +3121,23 @@
         <v>67</v>
       </c>
       <c r="B38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C38" s="28">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D38" s="28">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F38" s="31" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create World class to manage maps</v>
       </c>
     </row>
@@ -2910,23 +3146,23 @@
         <v>68</v>
       </c>
       <c r="B39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F39" s="31" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Map Class to hold tiled map</v>
       </c>
     </row>
@@ -2935,23 +3171,23 @@
         <v>69</v>
       </c>
       <c r="B40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F40" s="31" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create tile struct to hold tile definitions</v>
       </c>
     </row>
@@ -2960,23 +3196,23 @@
         <v>70</v>
       </c>
       <c r="B41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C41" s="28">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D41" s="28">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F41" s="31" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create tile definitions read in from XML</v>
       </c>
     </row>
@@ -2985,23 +3221,23 @@
         <v>71</v>
       </c>
       <c r="B42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F42" s="31" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update game management to to World-&gt;Map-&gt;Entites</v>
       </c>
     </row>
@@ -3010,23 +3246,23 @@
         <v>72</v>
       </c>
       <c r="B43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F43" s="31" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Draw Tiles on screen with test texture</v>
       </c>
     </row>
@@ -3035,23 +3271,23 @@
         <v>73</v>
       </c>
       <c r="B44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F44" s="31" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Draw Tiles on screen with tile def textures</v>
       </c>
     </row>
@@ -3060,23 +3296,23 @@
         <v>74</v>
       </c>
       <c r="B45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F45" s="31" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create a debugDraw button</v>
       </c>
     </row>
@@ -3085,23 +3321,23 @@
         <v>76</v>
       </c>
       <c r="B46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F46" s="31" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add Simple Physics to map to not allow player to move through solid tiles</v>
       </c>
     </row>
@@ -3110,23 +3346,23 @@
         <v>78</v>
       </c>
       <c r="B47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F47" s="31" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update cursor logic to exist withing a Cursor class</v>
       </c>
     </row>
@@ -3135,23 +3371,23 @@
         <v>79</v>
       </c>
       <c r="B48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F48" s="31" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add different states to cursor</v>
       </c>
     </row>
@@ -3160,23 +3396,23 @@
         <v>80</v>
       </c>
       <c r="B49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F49" s="31" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update Cursor logic to allow easier modification</v>
       </c>
     </row>
@@ -3185,23 +3421,23 @@
         <v>81</v>
       </c>
       <c r="B50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F50" s="31" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update Player logic to allow for easier modification</v>
       </c>
     </row>
@@ -3210,23 +3446,23 @@
         <v>82</v>
       </c>
       <c r="B51" s="28" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C51" s="28">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D51" s="28">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E51" s="28" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F51" s="31" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update entities to render sprites</v>
       </c>
     </row>
@@ -3235,23 +3471,23 @@
         <v>75</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C52" s="32">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D52" s="32">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E52" s="32" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F52" s="33" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Debug existing SpriteSheet class</v>
       </c>
     </row>
@@ -3260,23 +3496,23 @@
         <v>77</v>
       </c>
       <c r="B53" s="28" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C53" s="28">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D53" s="28">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E53" s="28" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F53" s="31" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Cursor SpriteSheet</v>
       </c>
     </row>
@@ -3285,23 +3521,23 @@
         <v>83</v>
       </c>
       <c r="B54" s="28" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C54" s="28">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D54" s="28">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E54" s="28" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F54" s="31" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Animate Player actions</v>
       </c>
     </row>
@@ -3310,23 +3546,23 @@
         <v>84</v>
       </c>
       <c r="B55" s="28" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C55" s="28">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D55" s="28">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E55" s="28" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F55" s="31" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Find an effective way to use external sprite sheets not in out typical format</v>
       </c>
     </row>
@@ -3338,23 +3574,23 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="61">
         <v>44012</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="61">
         <v>44025</v>
       </c>
       <c r="F57" s="59" t="str">
-        <f>"Total Hours Completed: " &amp; SUM(D58:D82)</f>
-        <v>Total Hours Completed: 0</v>
+        <f>"Total Hours Completed: " &amp; SUM(D58:D86)</f>
+        <v>Total Hours Completed: 12.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3362,23 +3598,23 @@
         <v>3</v>
       </c>
       <c r="B58" s="28" t="str">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C58" s="28">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D58" s="28">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E58" s="28">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>19</v>
       </c>
       <c r="F58" s="31" t="str">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Item class</v>
       </c>
     </row>
@@ -3387,23 +3623,23 @@
         <v>4</v>
       </c>
       <c r="B59" s="28" t="str">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C59" s="28">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D59" s="28">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
       </c>
       <c r="E59" s="28">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>22</v>
       </c>
       <c r="F59" s="31" t="str">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement an XML format to create items</v>
       </c>
     </row>
@@ -3412,23 +3648,23 @@
         <v>8</v>
       </c>
       <c r="B60" s="28" t="str">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C60" s="28">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D60" s="28">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
       </c>
       <c r="E60" s="28">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>34</v>
       </c>
       <c r="F60" s="31" t="str">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Allow entities to hold an "infinite" number of items</v>
       </c>
     </row>
@@ -3437,23 +3673,23 @@
         <v>9</v>
       </c>
       <c r="B61" s="28" t="str">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C61" s="28">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D61" s="28">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.5</v>
       </c>
       <c r="E61" s="28">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>35</v>
       </c>
       <c r="F61" s="31" t="str">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
       </c>
     </row>
@@ -3462,23 +3698,23 @@
         <v>14</v>
       </c>
       <c r="B62" s="28" t="str">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C62" s="28">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D62" s="28">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
       </c>
       <c r="E62" s="28">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>20</v>
       </c>
       <c r="F62" s="31" t="str">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement item stats that effect the entity if held</v>
       </c>
     </row>
@@ -3487,24 +3723,24 @@
         <v>24</v>
       </c>
       <c r="B63" s="28" t="str">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C63" s="28">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D63" s="28">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>2</v>
       </c>
       <c r="E63" s="28">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3</v>
       </c>
       <c r="F63" s="31" t="str">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Create a menu that allows the player to choose 3 abilites from a catalog of abilities</v>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Create a menu that allows the player to choose 4 abilites from a catalog of abilities</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,23 +3748,23 @@
         <v>33</v>
       </c>
       <c r="B64" s="28" t="str">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>29</v>
       </c>
       <c r="F64" s="31" t="str">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create quick ranged weak enemy type</v>
       </c>
     </row>
@@ -3537,23 +3773,23 @@
         <v>35</v>
       </c>
       <c r="B65" s="28" t="str">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>29</v>
       </c>
       <c r="F65" s="31" t="str">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create quick melee weak enemy type</v>
       </c>
     </row>
@@ -3562,23 +3798,23 @@
         <v>44</v>
       </c>
       <c r="B66" s="28" t="str">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>38</v>
       </c>
       <c r="F66" s="31" t="str">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement the ability for the player to pick up items by running over them</v>
       </c>
     </row>
@@ -3587,21 +3823,21 @@
         <v>45</v>
       </c>
       <c r="B67" s="28" t="str">
-        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>In Progress</v>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C67" s="28">
         <v>0.25</v>
       </c>
       <c r="D67" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E67" s="28">
-        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F67" s="31" t="str">
-        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
       </c>
     </row>
@@ -3610,23 +3846,23 @@
         <v>46</v>
       </c>
       <c r="B68" s="28" t="str">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C68" s="28">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D68" s="28">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E68" s="28">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F68" s="31" t="str">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement functionality for the player to return to the main menu upon losing all of their health</v>
       </c>
     </row>
@@ -3635,23 +3871,23 @@
         <v>47</v>
       </c>
       <c r="B69" s="28" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C69" s="28">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D69" s="28">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E69" s="28">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>39</v>
       </c>
       <c r="F69" s="31" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Increase enemy stats for every level</v>
       </c>
     </row>
@@ -3660,23 +3896,23 @@
         <v>51</v>
       </c>
       <c r="B70" s="28" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C70" s="28">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D70" s="28">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E70" s="28">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>37</v>
       </c>
       <c r="F70" s="31" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Write save state to XML (save unlocked abilities and stat set EXP)</v>
       </c>
     </row>
@@ -3685,23 +3921,23 @@
         <v>52</v>
       </c>
       <c r="B71" s="28" t="str">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C71" s="28">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D71" s="28">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E71" s="28">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>37</v>
       </c>
       <c r="F71" s="31" t="str">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Read game save state from XML</v>
       </c>
     </row>
@@ -3710,23 +3946,23 @@
         <v>58</v>
       </c>
       <c r="B72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C72" s="28">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D72" s="28">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F72" s="31" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement Projectile Ability type</v>
       </c>
     </row>
@@ -3735,23 +3971,23 @@
         <v>59</v>
       </c>
       <c r="B73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C73" s="28">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D73" s="28">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F73" s="31" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement targeted ability type</v>
       </c>
     </row>
@@ -3760,23 +3996,23 @@
         <v>86</v>
       </c>
       <c r="B74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C74" s="28">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D74" s="28">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F74" s="31" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add attack move cursor state</v>
       </c>
     </row>
@@ -3785,23 +4021,23 @@
         <v>87</v>
       </c>
       <c r="B75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C75" s="28">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D75" s="28">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1.5</v>
       </c>
       <c r="E75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F75" s="31" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add player attack move state</v>
       </c>
     </row>
@@ -3810,23 +4046,23 @@
         <v>88</v>
       </c>
       <c r="B76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C76" s="28">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D76" s="28">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F76" s="31" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add a raycast for line of sight logic</v>
       </c>
     </row>
@@ -3835,23 +4071,23 @@
         <v>89</v>
       </c>
       <c r="B77" s="28" t="str">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C77" s="28">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3</v>
       </c>
       <c r="D77" s="28">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E77" s="28" t="str">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F77" s="31" t="str">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add Map::PathFromLocationToPoint</v>
       </c>
     </row>
@@ -3860,23 +4096,23 @@
         <v>90</v>
       </c>
       <c r="B78" s="28" t="str">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C78" s="28">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D78" s="28">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E78" s="28" t="str">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F78" s="31" t="str">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Get Audio assets for: BGM, PlayerAttack, EnemyAttack, pick up Item</v>
       </c>
     </row>
@@ -3885,23 +4121,23 @@
         <v>91</v>
       </c>
       <c r="B79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C79" s="28">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D79" s="28">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F79" s="31" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement playing audio on actions</v>
       </c>
     </row>
@@ -3910,23 +4146,23 @@
         <v>92</v>
       </c>
       <c r="B80" s="28" t="str">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C80" s="28">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D80" s="28">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E80" s="28" t="str">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F80" s="31" t="str">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Creat UI button for menus</v>
       </c>
     </row>
@@ -3935,23 +4171,23 @@
         <v>93</v>
       </c>
       <c r="B81" s="28" t="str">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>In Progress</v>
       </c>
       <c r="C81" s="28">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D81" s="28">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.5</v>
       </c>
       <c r="E81" s="28" t="str">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F81" s="31" t="str">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</v>
       </c>
     </row>
@@ -3960,23 +4196,23 @@
         <v>94</v>
       </c>
       <c r="B82" s="28" t="str">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C82" s="28">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D82" s="28">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E82" s="28" t="str">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F82" s="31" t="str">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create main menu</v>
       </c>
     </row>
@@ -3985,23 +4221,23 @@
         <v>95</v>
       </c>
       <c r="B83" s="28" t="str">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C83" s="28">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D83" s="28">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E83" s="28" t="str">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F83" s="31" t="str">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create pause menu</v>
       </c>
     </row>
@@ -4010,109 +4246,150 @@
         <v>96</v>
       </c>
       <c r="B84" s="28" t="str">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C84" s="28">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D84" s="28">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E84" s="28" t="str">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F84" s="31" t="str">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add SFX volume control to menus</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>97</v>
       </c>
       <c r="B85" s="28" t="str">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C85" s="28">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D85" s="28">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E85" s="28" t="str">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F85" s="31" t="str">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add BGM volume control to menus</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>98</v>
+      </c>
+      <c r="B86" s="32" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C86" s="32">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="32">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E86" s="32" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F86" s="33" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Add Ability key to ability UI box</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B3 B29:B30">
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="22" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="23" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4 B4:B28">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="18" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="19" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B55">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="14" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F85">
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="57" priority="11">
       <formula>$B1="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B85">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86:F86">
+    <cfRule type="expression" dxfId="50" priority="4">
+      <formula>$B86="Deleted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4123,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B1D0D5-8BE9-4C2F-A748-65963B5C1812}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,7 +4434,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="42">
         <v>43988</v>
@@ -4175,21 +4452,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="28">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D3" s="28">
         <v>0.75</v>
       </c>
       <c r="E3" s="28">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F3" s="31" t="str">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -4202,19 +4479,19 @@
         <v>Completed</v>
       </c>
       <c r="C4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>32</v>
       </c>
       <c r="F4" s="31" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create entity class</v>
       </c>
     </row>
@@ -4227,19 +4504,19 @@
         <v>Completed</v>
       </c>
       <c r="C5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>33</v>
       </c>
       <c r="F5" s="31" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>allow entities to hold up to 4 abilities</v>
       </c>
     </row>
@@ -4252,19 +4529,19 @@
         <v>Completed</v>
       </c>
       <c r="C6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2.5</v>
       </c>
       <c r="D6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="F6" s="31" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create a player character class that inherits entity class</v>
       </c>
     </row>
@@ -4277,19 +4554,19 @@
         <v>Completed</v>
       </c>
       <c r="C7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F7" s="31" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement ability to control player character via mouse</v>
       </c>
     </row>
@@ -4302,19 +4579,19 @@
         <v>Completed</v>
       </c>
       <c r="C8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F8" s="31" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement ability for player to use abilities</v>
       </c>
     </row>
@@ -4327,19 +4604,19 @@
         <v>Completed</v>
       </c>
       <c r="C9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>46</v>
       </c>
       <c r="F9" s="31" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an in game ability bar Ui that shows cooldowns for all equipped abilities</v>
       </c>
     </row>
@@ -4352,25 +4629,25 @@
         <v>Completed</v>
       </c>
       <c r="C10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F10" s="31" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement Blink Ability type</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="42">
         <v>43997</v>
@@ -4388,21 +4665,21 @@
         <v>1</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D12" s="28">
         <v>0.75</v>
       </c>
       <c r="E12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F12" s="31" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -4415,19 +4692,19 @@
         <v>Completed</v>
       </c>
       <c r="C13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.75</v>
       </c>
       <c r="E13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F13" s="31" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement an XML format to create abilities</v>
       </c>
     </row>
@@ -4440,19 +4717,19 @@
         <v>Completed</v>
       </c>
       <c r="C14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F14" s="31" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create projectile class that is used by abilities</v>
       </c>
     </row>
@@ -4465,19 +4742,19 @@
         <v>Completed</v>
       </c>
       <c r="C15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>31</v>
       </c>
       <c r="F15" s="31" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an enemy class that inherits from entity</v>
       </c>
     </row>
@@ -4490,19 +4767,19 @@
         <v>Completed</v>
       </c>
       <c r="C16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>45</v>
       </c>
       <c r="F16" s="31" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an in game player health bar UI element</v>
       </c>
     </row>
@@ -4515,19 +4792,19 @@
         <v>Completed</v>
       </c>
       <c r="C17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>48</v>
       </c>
       <c r="F17" s="31" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create an in game enemy health bar UI element</v>
       </c>
     </row>
@@ -4540,19 +4817,19 @@
         <v>Completed</v>
       </c>
       <c r="C18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F18" s="31" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement Buff Ability type</v>
       </c>
     </row>
@@ -4565,19 +4842,19 @@
         <v>Completed</v>
       </c>
       <c r="C19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="F19" s="31" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Give the player the ability to attack the enemies (basic attack)</v>
       </c>
     </row>
@@ -4590,25 +4867,25 @@
         <v>Completed</v>
       </c>
       <c r="C20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F20" s="31" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create a method to create abilities from definitions</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="42">
         <v>44005</v>
@@ -4626,21 +4903,21 @@
         <v>63</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D22" s="28">
         <v>0.5</v>
       </c>
       <c r="E22" s="28" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F22" s="31" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Reevaluate Milestones and Features</v>
       </c>
     </row>
@@ -4649,21 +4926,21 @@
         <v>62</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D23" s="28">
         <v>0.5</v>
       </c>
       <c r="E23" s="28" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F23" s="31" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Sprint 2 Planning</v>
       </c>
     </row>
@@ -4672,21 +4949,21 @@
         <v>39</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D24" s="28">
         <v>1</v>
       </c>
       <c r="E24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>24</v>
       </c>
       <c r="F24" s="31" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement room generation based on png files</v>
       </c>
     </row>
@@ -4695,23 +4972,23 @@
         <v>64</v>
       </c>
       <c r="B25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F25" s="31" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Explore posibilities of vector art</v>
       </c>
     </row>
@@ -4720,23 +4997,23 @@
         <v>65</v>
       </c>
       <c r="B26" s="28" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E26" s="28" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F26" s="31" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Explore posibilities of using sprite art</v>
       </c>
     </row>
@@ -4745,21 +5022,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="28">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D27" s="28">
         <v>1</v>
       </c>
       <c r="E27" s="28" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F27" s="31" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Get sprites to use in game</v>
       </c>
     </row>
@@ -4768,23 +5045,23 @@
         <v>67</v>
       </c>
       <c r="B28" s="28" t="str">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C28" s="28">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D28" s="28">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E28" s="28" t="str">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F28" s="31" t="str">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create World class to manage maps</v>
       </c>
     </row>
@@ -4793,23 +5070,23 @@
         <v>68</v>
       </c>
       <c r="B29" s="28" t="str">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C29" s="28">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D29" s="28">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E29" s="28" t="str">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F29" s="31" t="str">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Map Class to hold tiled map</v>
       </c>
     </row>
@@ -4818,23 +5095,23 @@
         <v>69</v>
       </c>
       <c r="B30" s="28" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C30" s="28">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D30" s="28">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E30" s="28" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F30" s="31" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create tile struct to hold tile definitions</v>
       </c>
     </row>
@@ -4843,23 +5120,23 @@
         <v>70</v>
       </c>
       <c r="B31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F31" s="31" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create tile definitions read in from XML</v>
       </c>
     </row>
@@ -4868,23 +5145,23 @@
         <v>72</v>
       </c>
       <c r="B32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F32" s="31" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Draw Tiles on screen with test texture</v>
       </c>
     </row>
@@ -4893,23 +5170,23 @@
         <v>73</v>
       </c>
       <c r="B33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F33" s="31" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Draw Tiles on screen with tile def textures</v>
       </c>
     </row>
@@ -4918,23 +5195,23 @@
         <v>74</v>
       </c>
       <c r="B34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F34" s="31" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create a debugDraw button</v>
       </c>
     </row>
@@ -4943,29 +5220,29 @@
         <v>75</v>
       </c>
       <c r="B35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F35" s="31" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Debug existing SpriteSheet class</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="42">
         <v>44011</v>
@@ -4975,7 +5252,7 @@
       <c r="E36" s="43"/>
       <c r="F36" s="44" t="str">
         <f>"Hours Worked: " &amp; SUM(D37:D50)</f>
-        <v>Hours Worked: 9.25</v>
+        <v>Hours Worked: 12.25</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4983,22 +5260,22 @@
         <v>63</v>
       </c>
       <c r="B37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C37" s="28">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D37" s="28">
         <v>0.5</v>
       </c>
       <c r="E37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F37" s="31" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Reevaluate Milestones and Features</v>
       </c>
     </row>
@@ -5007,22 +5284,22 @@
         <v>62</v>
       </c>
       <c r="B38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C38" s="28">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D38" s="28">
         <v>0.5</v>
       </c>
       <c r="E38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F38" s="31" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Sprint 2 Planning</v>
       </c>
     </row>
@@ -5031,22 +5308,22 @@
         <v>39</v>
       </c>
       <c r="B39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D39" s="28">
         <v>0.5</v>
       </c>
       <c r="E39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>24</v>
       </c>
       <c r="F39" s="31" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement room generation based on png files</v>
       </c>
     </row>
@@ -5055,22 +5332,22 @@
         <v>45</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
-        <v>0.75</v>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>3.75</v>
       </c>
       <c r="E40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F40" s="31" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
       </c>
     </row>
@@ -5079,22 +5356,22 @@
         <v>66</v>
       </c>
       <c r="B41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C41" s="28">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D41" s="28">
         <v>1</v>
       </c>
       <c r="E41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F41" s="31" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Get sprites to use in game</v>
       </c>
     </row>
@@ -5103,23 +5380,23 @@
         <v>71</v>
       </c>
       <c r="B42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F42" s="31" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update game management to to World-&gt;Map-&gt;Entites</v>
       </c>
     </row>
@@ -5128,23 +5405,23 @@
         <v>78</v>
       </c>
       <c r="B43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F43" s="31" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update cursor logic to exist withing a Cursor class</v>
       </c>
     </row>
@@ -5153,23 +5430,23 @@
         <v>79</v>
       </c>
       <c r="B44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F44" s="31" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Add different states to cursor</v>
       </c>
     </row>
@@ -5178,23 +5455,23 @@
         <v>80</v>
       </c>
       <c r="B45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F45" s="31" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update Cursor logic to allow easier modification</v>
       </c>
     </row>
@@ -5203,23 +5480,23 @@
         <v>81</v>
       </c>
       <c r="B46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F46" s="31" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update Player logic to allow for easier modification</v>
       </c>
     </row>
@@ -5228,23 +5505,23 @@
         <v>82</v>
       </c>
       <c r="B47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F47" s="31" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Update entities to render sprites</v>
       </c>
     </row>
@@ -5253,23 +5530,23 @@
         <v>77</v>
       </c>
       <c r="B48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F48" s="31" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Create Cursor SpriteSheet</v>
       </c>
     </row>
@@ -5278,23 +5555,23 @@
         <v>83</v>
       </c>
       <c r="B49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F49" s="31" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Animate Player actions</v>
       </c>
     </row>
@@ -5303,185 +5580,750 @@
         <v>84</v>
       </c>
       <c r="B50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$194, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F50" s="31" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$198, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v>Find an effective way to use external sprite sheets not in out typical format</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="28" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$194, COLUMN()))</f>
+      <c r="A51" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="42">
+        <v>44018</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D52:D60)</f>
+        <v>Hours Worked: 4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="28" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C52" s="28">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="28">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="28">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>19</v>
+      </c>
+      <c r="F52" s="31" t="str">
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Create Item class</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" s="28" t="str">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C53" s="28">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="28">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E53" s="28">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>22</v>
+      </c>
+      <c r="F53" s="31" t="str">
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Implement an XML format to create items</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" s="28" t="str">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C54" s="28">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="D54" s="28">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="28">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>34</v>
+      </c>
+      <c r="F54" s="31" t="str">
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Allow entities to hold an "infinite" number of items</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" s="28" t="str">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C55" s="28">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="28">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="28">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>35</v>
+      </c>
+      <c r="F55" s="31" t="str">
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>98</v>
+      </c>
+      <c r="B56" s="28" t="str">
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C56" s="28">
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="28">
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="28" t="str">
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F56" s="31" t="str">
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Add Ability key to ability UI box</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" s="28" t="str">
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C57" s="28">
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="28">
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E57" s="28">
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>20</v>
+      </c>
+      <c r="F57" s="31" t="str">
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Implement item stats that effect the entity if held</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>92</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="28">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="28" t="str">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F58" s="31" t="str">
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Creat UI button for menus</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>93</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="28">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D59" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="28" t="str">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F59" s="31" t="str">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>94</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="28">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D60" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="28" t="str">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F60" s="31" t="str">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Create main menu</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="42">
+        <v>44019</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D62:D66)</f>
+        <v>Hours Worked: 5.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>92</v>
+      </c>
+      <c r="B62" s="28" t="str">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C62" s="28">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="28" t="str">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F62" s="31" t="str">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Creat UI button for menus</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>94</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="28">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="28" t="str">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F63" s="31" t="str">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Create main menu</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64" s="28" t="str">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>3</v>
+      </c>
+      <c r="F64" s="31" t="str">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Create a menu that allows the player to choose 4 abilites from a catalog of abilities</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>86</v>
+      </c>
+      <c r="B65" s="28" t="str">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C65" s="28">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="28">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E65" s="28" t="str">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F65" s="31" t="str">
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Add attack move cursor state</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>87</v>
+      </c>
+      <c r="B66" s="28" t="str">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C66" s="28">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D66" s="28">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E66" s="28" t="str">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F66" s="31" t="str">
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Add player attack move state</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="42">
+        <v>44024</v>
+      </c>
+      <c r="C67" s="43"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D68:D72)</f>
+        <v>Hours Worked: 5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>45</v>
+      </c>
+      <c r="B68" s="28" t="str">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C68" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="D68" s="28">
+        <v>3</v>
+      </c>
+      <c r="E68" s="28">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>36</v>
+      </c>
+      <c r="F68" s="31" t="str">
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="28" t="str">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v/>
       </c>
-      <c r="C51" s="28" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+      <c r="C69" s="28" t="str">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v/>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+      <c r="D69" s="28">
+        <v>2</v>
+      </c>
+      <c r="E69" s="28" t="str">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v/>
       </c>
-      <c r="F51" s="31" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$198, COLUMN()))</f>
+      <c r="F69" s="31" t="str">
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="28" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$194, COLUMN()))</f>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="28" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$196, COLUMN()))</f>
         <v/>
       </c>
-      <c r="C52" s="28" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+      <c r="C70" s="28" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v/>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+      <c r="D70" s="28" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v/>
       </c>
-      <c r="F52" s="31" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$198, COLUMN()))</f>
+      <c r="E70" s="28" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="31"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="31"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="31"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="31"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="31"/>
+      <c r="F70" s="31" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="42">
+        <v>44025</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D72:D76)</f>
+        <v>Hours Worked: 0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="28" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="C72" s="28" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="D72" s="28" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="E72" s="28" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="F72" s="31" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="28" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="C73" s="28" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="D73" s="28" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="E73" s="28" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="F73" s="31" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="C74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="D74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="E74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="F74" s="31" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="C75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="D75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="E75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="F75" s="31" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="C76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="D76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="E76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
+      <c r="F76" s="31" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10 B22:B35">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+  <conditionalFormatting sqref="B3:B10 B22:B35 B62:B66 B68:B70 B72:B76">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B20">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B57">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="B37:B50">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B60">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5491,11 +6333,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A181A4A-4DDC-43C7-AE99-DE5692A5CCCA}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5534,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18">
         <v>1.5</v>
@@ -5555,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="18">
         <v>0.5</v>
@@ -5576,12 +6418,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
       <c r="E4" s="13">
         <v>19</v>
       </c>
@@ -5595,12 +6439,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C5" s="18">
         <v>0.5</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16">
+        <v>0.25</v>
+      </c>
       <c r="E5" s="13">
         <v>22</v>
       </c>
@@ -5614,7 +6460,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="18">
         <v>0.75</v>
@@ -5626,7 +6472,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5635,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="18">
         <v>1.5</v>
@@ -5656,7 +6502,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="18">
         <v>0.25</v>
@@ -5677,12 +6523,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C9" s="18">
         <v>0.25</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16">
+        <v>0.25</v>
+      </c>
       <c r="E9" s="13">
         <v>34</v>
       </c>
@@ -5696,12 +6544,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18">
         <v>0.5</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="13">
         <v>35</v>
       </c>
@@ -5715,7 +6565,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="18">
         <v>2.5</v>
@@ -5736,7 +6586,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="18">
         <v>1.5</v>
@@ -5757,7 +6607,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="18">
         <v>1</v>
@@ -5778,7 +6628,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="18">
         <v>1</v>
@@ -5797,12 +6647,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="16">
+        <v>0.25</v>
+      </c>
       <c r="E15" s="13">
         <v>20</v>
       </c>
@@ -5816,7 +6668,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
@@ -5835,7 +6687,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
@@ -5845,7 +6697,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5854,7 +6706,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
@@ -5875,7 +6727,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
@@ -5894,7 +6746,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="20">
         <v>0.5</v>
@@ -5913,7 +6765,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="20">
         <v>0.5</v>
@@ -5932,7 +6784,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -5951,7 +6803,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="20">
         <v>1.5</v>
@@ -5970,7 +6822,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="20">
         <v>1</v>
@@ -5989,17 +6841,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C25" s="20">
         <v>1.5</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="16">
+        <v>2</v>
+      </c>
       <c r="E25" s="13">
         <v>3</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6008,7 +6862,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="20">
         <v>0.5</v>
@@ -6018,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6027,7 +6881,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="20">
         <v>0.5</v>
@@ -6037,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6046,7 +6900,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="20">
         <v>1</v>
@@ -6056,7 +6910,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,7 +6919,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="20">
         <v>0.5</v>
@@ -6077,7 +6931,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6086,7 +6940,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="20">
         <v>0.5</v>
@@ -6098,7 +6952,7 @@
         <v>48</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6107,7 +6961,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="20">
         <v>1</v>
@@ -6119,7 +6973,7 @@
         <v>46</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6128,7 +6982,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="20">
         <v>2</v>
@@ -6138,7 +6992,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6147,7 +7001,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="20">
         <v>0.75</v>
@@ -6157,7 +7011,7 @@
         <v>47</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6176,7 +7030,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6195,7 +7049,7 @@
         <v>29</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6214,7 +7068,7 @@
         <v>29</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6233,7 +7087,7 @@
         <v>29</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6252,7 +7106,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6261,7 +7115,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="19">
         <v>2</v>
@@ -6271,7 +7125,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6280,7 +7134,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="20">
         <v>2</v>
@@ -6292,7 +7146,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6301,7 +7155,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="20">
         <v>1.5</v>
@@ -6311,7 +7165,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6320,7 +7174,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="20">
         <v>0.5</v>
@@ -6330,7 +7184,7 @@
         <v>26</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,7 +7193,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="20">
         <v>0.5</v>
@@ -6349,7 +7203,7 @@
         <v>28</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6358,7 +7212,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="20">
         <v>1</v>
@@ -6368,7 +7222,7 @@
         <v>38</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6387,7 +7241,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6396,19 +7250,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C46" s="20">
         <v>1</v>
       </c>
       <c r="D46" s="16">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="E46" s="13">
         <v>36</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6427,7 +7281,7 @@
         <v>36</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,7 +7300,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,7 +7309,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="20">
         <v>1</v>
@@ -6465,7 +7319,7 @@
         <v>40</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6474,7 +7328,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="20">
         <v>2</v>
@@ -6484,7 +7338,7 @@
         <v>41</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6493,7 +7347,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="20">
         <v>2</v>
@@ -6503,7 +7357,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6522,7 +7376,7 @@
         <v>37</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,7 +7395,7 @@
         <v>37</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6557,10 +7411,10 @@
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,10 +7430,10 @@
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,15 +7449,15 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B57" s="63"/>
       <c r="C57" s="64"/>
@@ -6617,7 +7471,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="27">
         <v>1</v>
@@ -6626,10 +7480,10 @@
         <v>2</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6638,7 +7492,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="18">
         <v>1</v>
@@ -6647,10 +7501,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6666,10 +7520,10 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,10 +7539,10 @@
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6697,7 +7551,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="18">
         <v>1</v>
@@ -6706,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6715,7 +7569,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="18">
         <v>1.5</v>
@@ -6727,7 +7581,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6736,7 +7590,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="13">
         <v>1</v>
@@ -6745,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6757,7 +7611,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="13">
         <v>1</v>
@@ -6766,15 +7620,15 @@
         <v>1</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="63"/>
       <c r="C66" s="63"/>
@@ -6788,7 +7642,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="23">
         <v>1</v>
@@ -6797,10 +7651,10 @@
         <v>0.5</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6809,7 +7663,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="13">
         <v>1</v>
@@ -6818,10 +7672,10 @@
         <v>1.5</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6830,7 +7684,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="13">
         <v>1</v>
@@ -6839,10 +7693,10 @@
         <v>2</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6851,7 +7705,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="13">
         <v>0.5</v>
@@ -6860,10 +7714,10 @@
         <v>0.5</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6872,7 +7726,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="13">
         <v>0.5</v>
@@ -6881,10 +7735,10 @@
         <v>0.5</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6893,7 +7747,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="13">
         <v>0.5</v>
@@ -6902,10 +7756,10 @@
         <v>0.5</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -6914,7 +7768,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" s="13">
         <v>1</v>
@@ -6923,10 +7777,10 @@
         <v>0.75</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6935,7 +7789,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="13">
         <v>0.5</v>
@@ -6944,10 +7798,10 @@
         <v>0.25</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6956,7 +7810,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="13">
         <v>0.75</v>
@@ -6965,10 +7819,10 @@
         <v>0.75</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6977,7 +7831,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="13">
         <v>0.75</v>
@@ -6986,10 +7840,10 @@
         <v>0.5</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6998,7 +7852,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="13">
         <v>0.25</v>
@@ -7007,10 +7861,10 @@
         <v>0.25</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,7 +7873,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="13">
         <v>0</v>
@@ -7028,10 +7882,10 @@
         <v>0.75</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -7040,7 +7894,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" s="13">
         <v>2</v>
@@ -7049,10 +7903,10 @@
         <v>0</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7061,7 +7915,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" s="13">
         <v>0</v>
@@ -7070,10 +7924,10 @@
         <v>0.5</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -7082,7 +7936,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="13">
         <v>0.5</v>
@@ -7091,10 +7945,10 @@
         <v>0.5</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7103,7 +7957,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="13">
         <v>0.5</v>
@@ -7112,10 +7966,10 @@
         <v>0.25</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -7124,7 +7978,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" s="13">
         <v>0.5</v>
@@ -7133,10 +7987,10 @@
         <v>0.5</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -7145,7 +7999,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" s="13">
         <v>0.5</v>
@@ -7154,10 +8008,10 @@
         <v>0.5</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -7166,7 +8020,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="13">
         <v>2</v>
@@ -7175,10 +8029,10 @@
         <v>1</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7187,7 +8041,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86" s="13">
         <v>0</v>
@@ -7196,10 +8050,10 @@
         <v>1.5</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7208,7 +8062,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" s="13">
         <v>0</v>
@@ -7217,10 +8071,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7229,7 +8083,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" s="13">
         <v>0</v>
@@ -7238,10 +8092,10 @@
         <v>0.25</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7250,17 +8104,19 @@
         <v>86</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C89" s="23">
         <v>1</v>
       </c>
-      <c r="D89" s="55"/>
+      <c r="D89" s="55">
+        <v>1</v>
+      </c>
       <c r="E89" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -7269,16 +8125,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C90" s="13">
         <v>2</v>
       </c>
+      <c r="D90" s="8">
+        <v>1.5</v>
+      </c>
       <c r="E90" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -7293,10 +8152,10 @@
         <v>1.5</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -7311,10 +8170,10 @@
         <v>3</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -7329,10 +8188,10 @@
         <v>2</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -7347,10 +8206,10 @@
         <v>1.5</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,16 +8218,19 @@
         <v>92</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C95" s="13">
         <v>1</v>
       </c>
+      <c r="D95" s="8">
+        <v>1</v>
+      </c>
       <c r="E95" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -7377,16 +8239,19 @@
         <v>93</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C96" s="13">
         <v>1.5</v>
       </c>
+      <c r="D96" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E96" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -7395,16 +8260,19 @@
         <v>94</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C97" s="13">
         <v>1.5</v>
       </c>
+      <c r="D97" s="8">
+        <v>1</v>
+      </c>
       <c r="E97" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,10 +8287,10 @@
         <v>1.5</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -7437,10 +8305,10 @@
         <v>1</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -7455,50 +8323,97 @@
         <v>1</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="16">
-        <f>SUM(C2:C101)</f>
-        <v>118.75</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="63"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="66"/>
+    </row>
+    <row r="102" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22">
+        <f>ROW() - 4</f>
+        <v>98</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="23">
+        <v>0</v>
+      </c>
+      <c r="D102" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D104" s="16">
-        <f>SUM(D2:D101)</f>
-        <v>35.25</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" s="16">
+        <f>SUMIF(B2:B103, "&lt;&gt;Deleted",C2:C103)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="16">
+        <f>SUM(D2:D103)</f>
+        <v>47.75</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="B1:B100 B103:B1048576">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F100">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$B2="Deleted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:B102">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:F102">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$B101="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TheTrial/Docs/ProgressTracking.xlsx
+++ b/TheTrial/Docs/ProgressTracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\TheTrial\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629474D8-0A45-423F-ADAE-698389860ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF273F5-3242-4E79-9338-A5F566562CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{603EAEDC-D363-457D-B800-748B64D3B649}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{603EAEDC-D363-457D-B800-748B64D3B649}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="182">
   <si>
     <t>Task ID</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Every 10 levels the player will unlock a new ability from a tier based system (tier = level/10)</t>
   </si>
   <si>
-    <t>Write save state to XML (save unlocked abilities and stat set EXP)</t>
-  </si>
-  <si>
     <t>Read game save state from XML</t>
   </si>
   <si>
@@ -548,10 +545,43 @@
     <t>Create a menu that allows the player to choose 4 abilites from a catalog of abilities</t>
   </si>
   <si>
-    <t>Total Hours: 5</t>
-  </si>
-  <si>
-    <t>Total Hours: 9</t>
+    <t>Added Tasks</t>
+  </si>
+  <si>
+    <t>It was very helpful to have clear goals for this milestone. As things took shape it was easier to get into it. As I was working towards the end I did a poor job of task tracking and probably lumped tasks in with others as some of my tasks are very general. A lot didnt get done beacuse I over estimated the amount of time that I would work on the project. Had I worked consistantly as I did on this milestone across all milestones I probably would have ended up with a end result that I was more proud of.</t>
+  </si>
+  <si>
+    <t>Create 2 Additional Maps</t>
+  </si>
+  <si>
+    <t>Create Additional Items</t>
+  </si>
+  <si>
+    <t>Create Additional Abilities</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Updated Milestone 4</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Bug Fix and Polish</t>
+  </si>
+  <si>
+    <t>Create Unique Items and Abilities</t>
+  </si>
+  <si>
+    <t>Create Multiple Playable maps</t>
+  </si>
+  <si>
+    <t>Balance Gameplay Progression</t>
+  </si>
+  <si>
+    <t>Write save state to XML</t>
   </si>
 </sst>
 </file>
@@ -575,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -968,38 +1004,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="75">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1071,9 +1098,32 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1434,6 +1484,80 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1941,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24419E7A-05E7-46A5-8D47-0600B34158C9}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,268 +2079,314 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="73"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
         <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
         <v>149</v>
-      </c>
-      <c r="B23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="74"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
         <v>163</v>
-      </c>
-      <c r="B33" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="82"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2226,11 +2396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D356B3F-B2FC-4492-B6C6-3B09C1815C2E}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F96:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2264,16 +2434,16 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="47">
         <v>43984</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="47">
         <v>43997</v>
@@ -2284,7 +2454,7 @@
       </c>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:9" s="40" customFormat="1" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="40" customFormat="1" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="52"/>
       <c r="C3" s="53"/>
@@ -2293,34 +2463,34 @@
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="28" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F4" s="31" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -2329,23 +2499,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.75</v>
       </c>
       <c r="E5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F5" s="31" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an XML format to create abilities</v>
       </c>
     </row>
@@ -2354,23 +2524,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="28" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>19</v>
       </c>
       <c r="F6" s="31" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Item class</v>
       </c>
     </row>
@@ -2379,23 +2549,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="28" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>22</v>
       </c>
       <c r="F7" s="31" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an XML format to create items</v>
       </c>
     </row>
@@ -2404,23 +2574,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="28" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F8" s="31" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create projectile class that is used by abilities</v>
       </c>
     </row>
@@ -2429,23 +2599,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>32</v>
       </c>
       <c r="F9" s="31" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create entity class</v>
       </c>
     </row>
@@ -2454,23 +2624,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="28" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>33</v>
       </c>
       <c r="F10" s="31" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>allow entities to hold up to 4 abilities</v>
       </c>
     </row>
@@ -2479,23 +2649,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="28" t="str">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E11" s="28">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>34</v>
       </c>
       <c r="F11" s="31" t="str">
-        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A11), "", VLOOKUP($A11,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Allow entities to hold an "infinite" number of items</v>
       </c>
     </row>
@@ -2504,23 +2674,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="28" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>35</v>
       </c>
       <c r="F12" s="31" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
       </c>
     </row>
@@ -2529,23 +2699,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="28" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2.5</v>
       </c>
       <c r="D13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="F13" s="31" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a player character class that inherits entity class</v>
       </c>
     </row>
@@ -2554,23 +2724,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="28" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F14" s="31" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement ability to control player character via mouse</v>
       </c>
     </row>
@@ -2579,23 +2749,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="28" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F15" s="31" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement ability for player to use abilities</v>
       </c>
     </row>
@@ -2604,23 +2774,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="28" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>7</v>
       </c>
       <c r="F16" s="31" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement dodge dash</v>
       </c>
     </row>
@@ -2629,23 +2799,23 @@
         <v>14</v>
       </c>
       <c r="B17" s="28" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>20</v>
       </c>
       <c r="F17" s="31" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement item stats that effect the entity if held</v>
       </c>
     </row>
@@ -2654,23 +2824,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="28" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>21</v>
       </c>
       <c r="F18" s="31" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement item actives</v>
       </c>
     </row>
@@ -2679,23 +2849,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="28" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>21</v>
       </c>
       <c r="F19" s="31" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement the ability for the player to use equipped item actives</v>
       </c>
     </row>
@@ -2704,23 +2874,23 @@
         <v>17</v>
       </c>
       <c r="B20" s="28" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>31</v>
       </c>
       <c r="F20" s="31" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an enemy class that inherits from entity</v>
       </c>
     </row>
@@ -2729,23 +2899,23 @@
         <v>28</v>
       </c>
       <c r="B21" s="32" t="str">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E21" s="32">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>45</v>
       </c>
       <c r="F21" s="33" t="str">
-        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A21), "", VLOOKUP($A21,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an in game player health bar UI element</v>
       </c>
     </row>
@@ -2754,23 +2924,23 @@
         <v>29</v>
       </c>
       <c r="B22" s="28" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>48</v>
       </c>
       <c r="F22" s="31" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an in game enemy health bar UI element</v>
       </c>
     </row>
@@ -2779,23 +2949,23 @@
         <v>30</v>
       </c>
       <c r="B23" s="28" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>46</v>
       </c>
       <c r="F23" s="31" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an in game ability bar Ui that shows cooldowns for all equipped abilities</v>
       </c>
     </row>
@@ -2804,23 +2974,23 @@
         <v>56</v>
       </c>
       <c r="B24" s="28" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E24" s="28" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F24" s="31" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement Blink Ability type</v>
       </c>
     </row>
@@ -2829,23 +2999,23 @@
         <v>57</v>
       </c>
       <c r="B25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F25" s="31" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement Buff Ability type</v>
       </c>
     </row>
@@ -2854,23 +3024,23 @@
         <v>60</v>
       </c>
       <c r="B26" s="28" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="F26" s="31" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Give the player the ability to attack the enemies (basic attack)</v>
       </c>
     </row>
@@ -2879,23 +3049,23 @@
         <v>61</v>
       </c>
       <c r="B27" s="34" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E27" s="34">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F27" s="35" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a method to create abilities from definitions</v>
       </c>
     </row>
@@ -2908,16 +3078,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="38">
         <v>43998</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="38">
         <v>44011</v>
@@ -2927,7 +3097,7 @@
         <v>Total Hours Completed: 21.75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="40" customFormat="1" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="40" customFormat="1" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -2935,34 +3105,34 @@
       <c r="E30" s="71"/>
       <c r="F30" s="2"/>
       <c r="H30" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I30" s="76" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>63</v>
       </c>
       <c r="B31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F31" s="31" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Reevaluate Milestones and Features</v>
       </c>
     </row>
@@ -2971,23 +3141,23 @@
         <v>62</v>
       </c>
       <c r="B32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F32" s="31" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Sprint 2 Planning</v>
       </c>
     </row>
@@ -2996,23 +3166,23 @@
         <v>39</v>
       </c>
       <c r="B33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>24</v>
       </c>
       <c r="F33" s="31" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement room generation based on png files</v>
       </c>
     </row>
@@ -3021,23 +3191,23 @@
         <v>45</v>
       </c>
       <c r="B34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3.75</v>
       </c>
       <c r="E34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F34" s="31" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
       </c>
     </row>
@@ -3046,23 +3216,23 @@
         <v>64</v>
       </c>
       <c r="B35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F35" s="31" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Explore posibilities of vector art</v>
       </c>
     </row>
@@ -3071,23 +3241,23 @@
         <v>65</v>
       </c>
       <c r="B36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C36" s="28">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D36" s="28">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E36" s="28" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F36" s="31" t="str">
-        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A36), "", VLOOKUP($A36,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Explore posibilities of using sprite art</v>
       </c>
     </row>
@@ -3096,23 +3266,23 @@
         <v>66</v>
       </c>
       <c r="B37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C37" s="28">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D37" s="28">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F37" s="31" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Get sprites to use in game</v>
       </c>
     </row>
@@ -3121,23 +3291,23 @@
         <v>67</v>
       </c>
       <c r="B38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C38" s="28">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D38" s="28">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F38" s="31" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create World class to manage maps</v>
       </c>
     </row>
@@ -3146,23 +3316,23 @@
         <v>68</v>
       </c>
       <c r="B39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F39" s="31" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Map Class to hold tiled map</v>
       </c>
     </row>
@@ -3171,23 +3341,23 @@
         <v>69</v>
       </c>
       <c r="B40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E40" s="28" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F40" s="31" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create tile struct to hold tile definitions</v>
       </c>
     </row>
@@ -3196,23 +3366,23 @@
         <v>70</v>
       </c>
       <c r="B41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C41" s="28">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D41" s="28">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F41" s="31" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create tile definitions read in from XML</v>
       </c>
     </row>
@@ -3221,23 +3391,23 @@
         <v>71</v>
       </c>
       <c r="B42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F42" s="31" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update game management to to World-&gt;Map-&gt;Entites</v>
       </c>
     </row>
@@ -3246,23 +3416,23 @@
         <v>72</v>
       </c>
       <c r="B43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F43" s="31" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Draw Tiles on screen with test texture</v>
       </c>
     </row>
@@ -3271,23 +3441,23 @@
         <v>73</v>
       </c>
       <c r="B44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F44" s="31" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Draw Tiles on screen with tile def textures</v>
       </c>
     </row>
@@ -3296,23 +3466,23 @@
         <v>74</v>
       </c>
       <c r="B45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F45" s="31" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a debugDraw button</v>
       </c>
     </row>
@@ -3321,23 +3491,23 @@
         <v>76</v>
       </c>
       <c r="B46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Deleted</v>
       </c>
       <c r="C46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F46" s="31" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add Simple Physics to map to not allow player to move through solid tiles</v>
       </c>
     </row>
@@ -3346,23 +3516,23 @@
         <v>78</v>
       </c>
       <c r="B47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F47" s="31" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update cursor logic to exist withing a Cursor class</v>
       </c>
     </row>
@@ -3371,1018 +3541,1426 @@
         <v>79</v>
       </c>
       <c r="B48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F48" s="31" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add different states to cursor</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>80</v>
       </c>
       <c r="B49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F49" s="31" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update Cursor logic to allow easier modification</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>81</v>
       </c>
       <c r="B50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F50" s="31" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update Player logic to allow for easier modification</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>82</v>
       </c>
       <c r="B51" s="28" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C51" s="28">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D51" s="28">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E51" s="28" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F51" s="31" t="str">
-        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A51), "", VLOOKUP($A51,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update entities to render sprites</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56">
         <v>75</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C52" s="32">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D52" s="32">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E52" s="32" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F52" s="33" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Debug existing SpriteSheet class</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>77</v>
       </c>
       <c r="B53" s="28" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C53" s="28">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D53" s="28">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E53" s="28" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F53" s="31" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Cursor SpriteSheet</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>83</v>
       </c>
       <c r="B54" s="28" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C54" s="28">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D54" s="28">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E54" s="28" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F54" s="31" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Animate Player actions</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>84</v>
       </c>
       <c r="B55" s="28" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C55" s="28">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D55" s="28">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E55" s="28" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F55" s="31" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Find an effective way to use external sprite sheets not in out typical format</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="57" customFormat="1" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="57" customFormat="1" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="61">
         <v>44012</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="61">
         <v>44025</v>
       </c>
       <c r="F57" s="59" t="str">
-        <f>"Total Hours Completed: " &amp; SUM(D58:D86)</f>
-        <v>Total Hours Completed: 12.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+        <f>"Total Hours Completed: " &amp; SUM(D59:D89)</f>
+        <v>Total Hours Completed: 22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="40" customFormat="1" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="2"/>
+      <c r="H58" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>3</v>
       </c>
-      <c r="B58" s="28" t="str">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C58" s="28">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D58" s="28">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="E58" s="28">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B59" s="28" t="str">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C59" s="28">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="28">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="28">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>19</v>
       </c>
-      <c r="F58" s="31" t="str">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F59" s="31" t="str">
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Item class</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>4</v>
       </c>
-      <c r="B59" s="28" t="str">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C59" s="28">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="28">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B60" s="28" t="str">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C60" s="28">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="28">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
-      <c r="E59" s="28">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E60" s="28">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>22</v>
       </c>
-      <c r="F59" s="31" t="str">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F60" s="31" t="str">
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an XML format to create items</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>8</v>
       </c>
-      <c r="B60" s="28" t="str">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C60" s="28">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B61" s="28" t="str">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C61" s="28">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
-      <c r="D60" s="28">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="D61" s="28">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
-      <c r="E60" s="28">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E61" s="28">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>34</v>
       </c>
-      <c r="F60" s="31" t="str">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F61" s="31" t="str">
+        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Allow entities to hold an "infinite" number of items</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>9</v>
       </c>
-      <c r="B61" s="28" t="str">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C61" s="28">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D61" s="28">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="28">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B62" s="28" t="str">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C62" s="28">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="28">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="28">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>35</v>
       </c>
-      <c r="F61" s="31" t="str">
-        <f>IF( ISBLANK($A61), "", VLOOKUP($A61,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F62" s="31" t="str">
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>14</v>
       </c>
-      <c r="B62" s="28" t="str">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C62" s="28">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D62" s="28">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B63" s="28" t="str">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C63" s="28">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D63" s="28">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
-      <c r="E62" s="28">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E63" s="28">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>20</v>
       </c>
-      <c r="F62" s="31" t="str">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F63" s="31" t="str">
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement item stats that effect the entity if held</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>24</v>
       </c>
-      <c r="B63" s="28" t="str">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C63" s="28">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B64" s="28" t="str">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
-      <c r="D63" s="28">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="D64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
-      <c r="E63" s="28">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E64" s="28">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3</v>
       </c>
-      <c r="F63" s="31" t="str">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F64" s="31" t="str">
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a menu that allows the player to choose 4 abilites from a catalog of abilities</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>33</v>
-      </c>
-      <c r="B64" s="28" t="str">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="C64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>29</v>
-      </c>
-      <c r="F64" s="31" t="str">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Create quick ranged weak enemy type</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B65" s="28" t="str">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>29</v>
       </c>
       <c r="F65" s="31" t="str">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Create quick melee weak enemy type</v>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create quick ranged weak enemy type</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B66" s="28" t="str">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
       </c>
       <c r="E66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>38</v>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>29</v>
       </c>
       <c r="F66" s="31" t="str">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Implement the ability for the player to pick up items by running over them</v>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create quick melee weak enemy type</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="28" t="str">
-        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C67" s="28">
-        <v>0.25</v>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="D67" s="28">
-        <v>3</v>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E67" s="28">
-        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>36</v>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>38</v>
       </c>
       <c r="F67" s="31" t="str">
-        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
+        <f>IF( ISBLANK($A67), "", VLOOKUP($A67,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement the ability for the player to pick up items by running over them</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="28" t="str">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C68" s="28">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D68" s="28">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" s="28">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F68" s="31" t="str">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Implement functionality for the player to return to the main menu upon losing all of their health</v>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="28" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C69" s="28">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D69" s="28">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.5</v>
       </c>
       <c r="E69" s="28">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>39</v>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>36</v>
       </c>
       <c r="F69" s="31" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Increase enemy stats for every level</v>
+        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement functionality for the player to return to the main menu upon losing all of their health</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" s="28" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C70" s="28">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1.5</v>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="D70" s="28">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E70" s="28">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>37</v>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>39</v>
       </c>
       <c r="F70" s="31" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Write save state to XML (save unlocked abilities and stat set EXP)</v>
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Increase enemy stats for every level</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="28" t="str">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C71" s="28">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
       </c>
       <c r="D71" s="28">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E71" s="28">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>37</v>
       </c>
       <c r="F71" s="31" t="str">
-        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Read game save state from XML</v>
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Write save state to XML</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C72" s="28">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D72" s="28">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
-      <c r="E72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>3, 16</v>
+      <c r="E72" s="28">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>37</v>
       </c>
       <c r="F72" s="31" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Implement Projectile Ability type</v>
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Read game save state from XML</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C73" s="28">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D73" s="28">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
       </c>
       <c r="E73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F73" s="31" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Implement targeted ability type</v>
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement Projectile Ability type</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C74" s="28">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D74" s="28">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.75</v>
       </c>
       <c r="E74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>-</v>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>3, 16</v>
       </c>
       <c r="F74" s="31" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Add attack move cursor state</v>
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement targeted ability type</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C75" s="28">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>2</v>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="D75" s="28">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1.5</v>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F75" s="31" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Add player attack move state</v>
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Add attack move cursor state</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C76" s="28">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D76" s="28">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
-      <c r="D76" s="28">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
-      </c>
       <c r="E76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F76" s="31" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Add a raycast for line of sight logic</v>
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Add player attack move state</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="28" t="str">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C77" s="28">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>3</v>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
       </c>
       <c r="D77" s="28">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.75</v>
       </c>
       <c r="E77" s="28" t="str">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F77" s="31" t="str">
-        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Add Map::PathFromLocationToPoint</v>
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Add a raycast for line of sight logic</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="28" t="str">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C78" s="28">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>2</v>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>3</v>
       </c>
       <c r="D78" s="28">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E78" s="28" t="str">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F78" s="31" t="str">
-        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Get Audio assets for: BGM, PlayerAttack, EnemyAttack, pick up Item</v>
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Add Map::PathFromLocationToPoint</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
       <c r="C79" s="28">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1.5</v>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
       </c>
       <c r="D79" s="28">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="E79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F79" s="31" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Implement playing audio on actions</v>
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Get Audio assets for: BGM, PlayerAttack, EnemyAttack, pick up Item</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="28" t="str">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
       </c>
       <c r="C80" s="28">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
       </c>
       <c r="D80" s="28">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
       </c>
       <c r="E80" s="28" t="str">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F80" s="31" t="str">
-        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Creat UI button for menus</v>
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement playing audio on actions</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="28" t="str">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>In Progress</v>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C81" s="28">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1.5</v>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="D81" s="28">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0.5</v>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E81" s="28" t="str">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F81" s="31" t="str">
-        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</v>
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Creat UI button for menus</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" s="28" t="str">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C82" s="28">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D82" s="28">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
       </c>
       <c r="E82" s="28" t="str">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F82" s="31" t="str">
-        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Create main menu</v>
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" s="28" t="str">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Not Started</v>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
       </c>
       <c r="C83" s="28">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D83" s="28">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>0</v>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
       </c>
       <c r="E83" s="28" t="str">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F83" s="31" t="str">
-        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Create pause menu</v>
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create main menu</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
+        <v>95</v>
+      </c>
+      <c r="B84" s="28" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C84" s="28">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D84" s="28">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E84" s="28" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F84" s="31" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create pause menu</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>96</v>
       </c>
-      <c r="B84" s="28" t="str">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B85" s="28" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
-      <c r="C84" s="28">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D84" s="28">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="C85" s="28">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="28">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
-      <c r="E84" s="28" t="str">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E85" s="28" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
-      <c r="F84" s="31" t="str">
-        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F85" s="31" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add SFX volume control to menus</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>97</v>
       </c>
-      <c r="B85" s="28" t="str">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B86" s="28" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Not Started</v>
       </c>
-      <c r="C85" s="28">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>1</v>
-      </c>
-      <c r="D85" s="28">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="C86" s="28">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D86" s="28">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
-      <c r="E85" s="28" t="str">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E86" s="28" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
-      <c r="F85" s="31" t="str">
-        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F86" s="31" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add BGM volume control to menus</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="78"/>
+    </row>
+    <row r="88" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
         <v>98</v>
       </c>
-      <c r="B86" s="32" t="str">
-        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v>Completed</v>
-      </c>
-      <c r="C86" s="32">
-        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="B88" s="32" t="str">
+        <f>IF( ISBLANK($A88), "", VLOOKUP($A88,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C88" s="32">
+        <f>IF( ISBLANK($A88), "", VLOOKUP($A88,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="32">
-        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="D88" s="32">
+        <f>IF( ISBLANK($A88), "", VLOOKUP($A88,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
-      <c r="E86" s="32" t="str">
-        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E88" s="32" t="str">
+        <f>IF( ISBLANK($A88), "", VLOOKUP($A88,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
-      <c r="F86" s="33" t="str">
-        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F88" s="33" t="str">
+        <f>IF( ISBLANK($A88), "", VLOOKUP($A88,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add Ability key to ability UI box</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>37</v>
+      </c>
+      <c r="B89" s="39" t="str">
+        <f>IF( ISBLANK($A89), "", VLOOKUP($A89,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C89" s="39">
+        <f>IF( ISBLANK($A89), "", VLOOKUP($A89,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D89" s="39">
+        <f>IF( ISBLANK($A89), "", VLOOKUP($A89,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E89" s="39">
+        <f>IF( ISBLANK($A89), "", VLOOKUP($A89,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>30</v>
+      </c>
+      <c r="F89" s="30" t="str">
+        <f>IF( ISBLANK($A89), "", VLOOKUP($A89,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement simple AI for enemy to move and attack the player</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="57" customFormat="1" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="81">
+        <v>44026</v>
+      </c>
+      <c r="D91" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="81">
+        <v>44032</v>
+      </c>
+      <c r="F91" s="79" t="str">
+        <f>"Total Hours Completed: " &amp; SUM(D93:D123)</f>
+        <v>Total Hours Completed: 0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="29">
+        <v>47</v>
+      </c>
+      <c r="B92" s="39" t="str">
+        <f>IF( ISBLANK($A92), "", VLOOKUP($A92,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C92" s="39">
+        <f>IF( ISBLANK($A92), "", VLOOKUP($A92,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="39">
+        <f>IF( ISBLANK($A92), "", VLOOKUP($A92,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="39">
+        <f>IF( ISBLANK($A92), "", VLOOKUP($A92,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>39</v>
+      </c>
+      <c r="F92" s="30" t="str">
+        <f>IF( ISBLANK($A92), "", VLOOKUP($A92,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Increase enemy stats for every level</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>51</v>
+      </c>
+      <c r="B93" s="39" t="str">
+        <f>IF( ISBLANK($A93), "", VLOOKUP($A93,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C93" s="39">
+        <f>IF( ISBLANK($A93), "", VLOOKUP($A93,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D93" s="39">
+        <f>IF( ISBLANK($A93), "", VLOOKUP($A93,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="39">
+        <f>IF( ISBLANK($A93), "", VLOOKUP($A93,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>37</v>
+      </c>
+      <c r="F93" s="30" t="str">
+        <f>IF( ISBLANK($A93), "", VLOOKUP($A93,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Write save state to XML</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>52</v>
+      </c>
+      <c r="B94" s="39" t="str">
+        <f>IF( ISBLANK($A94), "", VLOOKUP($A94,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C94" s="39">
+        <f>IF( ISBLANK($A94), "", VLOOKUP($A94,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D94" s="39">
+        <f>IF( ISBLANK($A94), "", VLOOKUP($A94,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="39">
+        <f>IF( ISBLANK($A94), "", VLOOKUP($A94,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>37</v>
+      </c>
+      <c r="F94" s="30" t="str">
+        <f>IF( ISBLANK($A94), "", VLOOKUP($A94,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Read game save state from XML</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>90</v>
+      </c>
+      <c r="B95" s="39" t="str">
+        <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C95" s="39">
+        <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D95" s="39">
+        <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="39" t="str">
+        <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F95" s="30" t="str">
+        <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Get Audio assets for: BGM, PlayerAttack, EnemyAttack, pick up Item</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>91</v>
+      </c>
+      <c r="B96" s="39" t="str">
+        <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C96" s="39">
+        <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D96" s="39">
+        <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="39" t="str">
+        <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F96" s="30" t="str">
+        <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement playing audio on actions</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="39" t="str">
+        <f>IF( ISBLANK($A97), "", VLOOKUP($A97,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C97" s="39">
+        <f>IF( ISBLANK($A97), "", VLOOKUP($A97,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D97" s="39">
+        <f>IF( ISBLANK($A97), "", VLOOKUP($A97,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="39" t="str">
+        <f>IF( ISBLANK($A97), "", VLOOKUP($A97,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F97" s="30" t="str">
+        <f>IF( ISBLANK($A97), "", VLOOKUP($A97,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Add SFX volume control to menus</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="39" t="str">
+        <f>IF( ISBLANK($A98), "", VLOOKUP($A98,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C98" s="39">
+        <f>IF( ISBLANK($A98), "", VLOOKUP($A98,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D98" s="39">
+        <f>IF( ISBLANK($A98), "", VLOOKUP($A98,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="39" t="str">
+        <f>IF( ISBLANK($A98), "", VLOOKUP($A98,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F98" s="30" t="str">
+        <f>IF( ISBLANK($A98), "", VLOOKUP($A98,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Add BGM volume control to menus</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>99</v>
+      </c>
+      <c r="B99" s="39" t="str">
+        <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C99" s="39">
+        <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D99" s="39">
+        <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="39" t="str">
+        <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F99" s="30" t="str">
+        <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create 2 Additional Maps</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" s="39" t="str">
+        <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C100" s="39">
+        <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D100" s="39">
+        <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="39" t="str">
+        <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F100" s="30" t="str">
+        <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create Additional Items</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>101</v>
+      </c>
+      <c r="B101" s="39" t="str">
+        <f>IF( ISBLANK($A101), "", VLOOKUP($A101,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C101" s="39">
+        <f>IF( ISBLANK($A101), "", VLOOKUP($A101,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D101" s="39">
+        <f>IF( ISBLANK($A101), "", VLOOKUP($A101,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="39" t="str">
+        <f>IF( ISBLANK($A101), "", VLOOKUP($A101,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F101" s="30" t="str">
+        <f>IF( ISBLANK($A101), "", VLOOKUP($A101,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create Additional Abilities</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>54</v>
+      </c>
+      <c r="B102" s="39" t="str">
+        <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C102" s="39">
+        <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>10</v>
+      </c>
+      <c r="D102" s="39">
+        <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="39" t="str">
+        <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F102" s="30" t="str">
+        <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Polish</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>55</v>
+      </c>
+      <c r="B103" s="39" t="str">
+        <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="C103" s="39">
+        <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>10</v>
+      </c>
+      <c r="D103" s="39">
+        <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="39" t="str">
+        <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F103" s="30" t="str">
+        <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Bug Fixing</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B3 B29:B30">
-    <cfRule type="cellIs" dxfId="66" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="29" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="30" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="31" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4 B4:B28">
-    <cfRule type="cellIs" dxfId="63" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B55">
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F85">
-    <cfRule type="expression" dxfId="57" priority="11">
+  <conditionalFormatting sqref="A1:F87 A89">
+    <cfRule type="expression" dxfId="65" priority="19">
       <formula>$B1="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+  <conditionalFormatting sqref="B57:B58">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="18" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B85">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+  <conditionalFormatting sqref="B59:B87">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:F89">
+    <cfRule type="expression" dxfId="58" priority="12">
+      <formula>$B88="Deleted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B89">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:F91">
+    <cfRule type="expression" dxfId="54" priority="8">
+      <formula>$B91="Deleted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
-      <formula>"Completed"</formula>
+      <formula>"In Progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:F86">
+  <conditionalFormatting sqref="B92:F103">
     <cfRule type="expression" dxfId="50" priority="4">
-      <formula>$B86="Deleted"</formula>
+      <formula>$B92="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
+  <conditionalFormatting sqref="B92:B103">
     <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -4400,16 +4978,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B1D0D5-8BE9-4C2F-A748-65963B5C1812}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="72.7109375" customWidth="1"/>
+    <col min="6" max="6" width="90.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4434,7 +5012,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="42">
         <v>43988</v>
@@ -4452,21 +5030,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="28">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D3" s="28">
         <v>0.75</v>
       </c>
       <c r="E3" s="28">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F3" s="31" t="str">
-        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A3), "", VLOOKUP($A3,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -4479,19 +5057,19 @@
         <v>Completed</v>
       </c>
       <c r="C4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E4" s="28">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>32</v>
       </c>
       <c r="F4" s="31" t="str">
-        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A4), "", VLOOKUP($A4,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create entity class</v>
       </c>
     </row>
@@ -4504,19 +5082,19 @@
         <v>Completed</v>
       </c>
       <c r="C5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E5" s="28">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>33</v>
       </c>
       <c r="F5" s="31" t="str">
-        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A5), "", VLOOKUP($A5,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>allow entities to hold up to 4 abilities</v>
       </c>
     </row>
@@ -4529,19 +5107,19 @@
         <v>Completed</v>
       </c>
       <c r="C6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2.5</v>
       </c>
       <c r="D6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E6" s="28">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="F6" s="31" t="str">
-        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A6), "", VLOOKUP($A6,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a player character class that inherits entity class</v>
       </c>
     </row>
@@ -4554,19 +5132,19 @@
         <v>Completed</v>
       </c>
       <c r="C7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E7" s="28">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F7" s="31" t="str">
-        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A7), "", VLOOKUP($A7,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement ability to control player character via mouse</v>
       </c>
     </row>
@@ -4579,19 +5157,19 @@
         <v>Completed</v>
       </c>
       <c r="C8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E8" s="28">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="F8" s="31" t="str">
-        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A8), "", VLOOKUP($A8,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement ability for player to use abilities</v>
       </c>
     </row>
@@ -4604,19 +5182,19 @@
         <v>Completed</v>
       </c>
       <c r="C9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E9" s="28">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>46</v>
       </c>
       <c r="F9" s="31" t="str">
-        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A9), "", VLOOKUP($A9,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an in game ability bar Ui that shows cooldowns for all equipped abilities</v>
       </c>
     </row>
@@ -4629,25 +5207,25 @@
         <v>Completed</v>
       </c>
       <c r="C10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D10" s="28">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F10" s="31" t="str">
-        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A10), "", VLOOKUP($A10,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement Blink Ability type</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="42">
         <v>43997</v>
@@ -4665,21 +5243,21 @@
         <v>1</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D12" s="28">
         <v>0.75</v>
       </c>
       <c r="E12" s="28">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F12" s="31" t="str">
-        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A12), "", VLOOKUP($A12,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Ability class</v>
       </c>
     </row>
@@ -4692,19 +5270,19 @@
         <v>Completed</v>
       </c>
       <c r="C13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.75</v>
       </c>
       <c r="E13" s="28">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F13" s="31" t="str">
-        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A13), "", VLOOKUP($A13,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an XML format to create abilities</v>
       </c>
     </row>
@@ -4717,19 +5295,19 @@
         <v>Completed</v>
       </c>
       <c r="C14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E14" s="28">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>18</v>
       </c>
       <c r="F14" s="31" t="str">
-        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A14), "", VLOOKUP($A14,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create projectile class that is used by abilities</v>
       </c>
     </row>
@@ -4742,19 +5320,19 @@
         <v>Completed</v>
       </c>
       <c r="C15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E15" s="28">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>31</v>
       </c>
       <c r="F15" s="31" t="str">
-        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A15), "", VLOOKUP($A15,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an enemy class that inherits from entity</v>
       </c>
     </row>
@@ -4767,19 +5345,19 @@
         <v>Completed</v>
       </c>
       <c r="C16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E16" s="28">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>45</v>
       </c>
       <c r="F16" s="31" t="str">
-        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A16), "", VLOOKUP($A16,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an in game player health bar UI element</v>
       </c>
     </row>
@@ -4792,19 +5370,19 @@
         <v>Completed</v>
       </c>
       <c r="C17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E17" s="28">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>48</v>
       </c>
       <c r="F17" s="31" t="str">
-        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A17), "", VLOOKUP($A17,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create an in game enemy health bar UI element</v>
       </c>
     </row>
@@ -4817,19 +5395,19 @@
         <v>Completed</v>
       </c>
       <c r="C18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D18" s="28">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3, 16</v>
       </c>
       <c r="F18" s="31" t="str">
-        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A18), "", VLOOKUP($A18,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement Buff Ability type</v>
       </c>
     </row>
@@ -4842,19 +5420,19 @@
         <v>Completed</v>
       </c>
       <c r="C19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E19" s="28">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="F19" s="31" t="str">
-        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A19), "", VLOOKUP($A19,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Give the player the ability to attack the enemies (basic attack)</v>
       </c>
     </row>
@@ -4867,25 +5445,25 @@
         <v>Completed</v>
       </c>
       <c r="C20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E20" s="28">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>16</v>
       </c>
       <c r="F20" s="31" t="str">
-        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A20), "", VLOOKUP($A20,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a method to create abilities from definitions</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="42">
         <v>44005</v>
@@ -4903,21 +5481,21 @@
         <v>63</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="28">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D22" s="28">
         <v>0.5</v>
       </c>
       <c r="E22" s="28" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F22" s="31" t="str">
-        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A22), "", VLOOKUP($A22,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Reevaluate Milestones and Features</v>
       </c>
     </row>
@@ -4926,21 +5504,21 @@
         <v>62</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="28">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D23" s="28">
         <v>0.5</v>
       </c>
       <c r="E23" s="28" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F23" s="31" t="str">
-        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A23), "", VLOOKUP($A23,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Sprint 2 Planning</v>
       </c>
     </row>
@@ -4949,21 +5527,21 @@
         <v>39</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D24" s="28">
         <v>1</v>
       </c>
       <c r="E24" s="28">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>24</v>
       </c>
       <c r="F24" s="31" t="str">
-        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A24), "", VLOOKUP($A24,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement room generation based on png files</v>
       </c>
     </row>
@@ -4972,23 +5550,23 @@
         <v>64</v>
       </c>
       <c r="B25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D25" s="28">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E25" s="28" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F25" s="31" t="str">
-        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A25), "", VLOOKUP($A25,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Explore posibilities of vector art</v>
       </c>
     </row>
@@ -4997,23 +5575,23 @@
         <v>65</v>
       </c>
       <c r="B26" s="28" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D26" s="28">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E26" s="28" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F26" s="31" t="str">
-        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A26), "", VLOOKUP($A26,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Explore posibilities of using sprite art</v>
       </c>
     </row>
@@ -5022,21 +5600,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="28">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D27" s="28">
         <v>1</v>
       </c>
       <c r="E27" s="28" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F27" s="31" t="str">
-        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A27), "", VLOOKUP($A27,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Get sprites to use in game</v>
       </c>
     </row>
@@ -5045,23 +5623,23 @@
         <v>67</v>
       </c>
       <c r="B28" s="28" t="str">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C28" s="28">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D28" s="28">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E28" s="28" t="str">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F28" s="31" t="str">
-        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A28), "", VLOOKUP($A28,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create World class to manage maps</v>
       </c>
     </row>
@@ -5070,23 +5648,23 @@
         <v>68</v>
       </c>
       <c r="B29" s="28" t="str">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C29" s="28">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D29" s="28">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E29" s="28" t="str">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F29" s="31" t="str">
-        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A29), "", VLOOKUP($A29,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Map Class to hold tiled map</v>
       </c>
     </row>
@@ -5095,23 +5673,23 @@
         <v>69</v>
       </c>
       <c r="B30" s="28" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C30" s="28">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D30" s="28">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E30" s="28" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F30" s="31" t="str">
-        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A30), "", VLOOKUP($A30,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create tile struct to hold tile definitions</v>
       </c>
     </row>
@@ -5120,23 +5698,23 @@
         <v>70</v>
       </c>
       <c r="B31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D31" s="28">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E31" s="28" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F31" s="31" t="str">
-        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A31), "", VLOOKUP($A31,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create tile definitions read in from XML</v>
       </c>
     </row>
@@ -5145,23 +5723,23 @@
         <v>72</v>
       </c>
       <c r="B32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D32" s="28">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F32" s="31" t="str">
-        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A32), "", VLOOKUP($A32,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Draw Tiles on screen with test texture</v>
       </c>
     </row>
@@ -5170,23 +5748,23 @@
         <v>73</v>
       </c>
       <c r="B33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="D33" s="28">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E33" s="28" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F33" s="31" t="str">
-        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A33), "", VLOOKUP($A33,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Draw Tiles on screen with tile def textures</v>
       </c>
     </row>
@@ -5195,23 +5773,23 @@
         <v>74</v>
       </c>
       <c r="B34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D34" s="28">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F34" s="31" t="str">
-        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A34), "", VLOOKUP($A34,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a debugDraw button</v>
       </c>
     </row>
@@ -5220,29 +5798,29 @@
         <v>75</v>
       </c>
       <c r="B35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D35" s="28">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.75</v>
       </c>
       <c r="E35" s="28" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F35" s="31" t="str">
-        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A35), "", VLOOKUP($A35,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Debug existing SpriteSheet class</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="42">
         <v>44011</v>
@@ -5260,22 +5838,22 @@
         <v>63</v>
       </c>
       <c r="B37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C37" s="28">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D37" s="28">
         <v>0.5</v>
       </c>
       <c r="E37" s="28" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F37" s="31" t="str">
-        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A37), "", VLOOKUP($A37,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Reevaluate Milestones and Features</v>
       </c>
     </row>
@@ -5284,22 +5862,22 @@
         <v>62</v>
       </c>
       <c r="B38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C38" s="28">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D38" s="28">
         <v>0.5</v>
       </c>
       <c r="E38" s="28" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F38" s="31" t="str">
-        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A38), "", VLOOKUP($A38,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Sprint 2 Planning</v>
       </c>
     </row>
@@ -5308,22 +5886,22 @@
         <v>39</v>
       </c>
       <c r="B39" s="28" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D39" s="28">
         <v>0.5</v>
       </c>
       <c r="E39" s="28">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>24</v>
       </c>
       <c r="F39" s="31" t="str">
-        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A39), "", VLOOKUP($A39,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement room generation based on png files</v>
       </c>
     </row>
@@ -5332,22 +5910,22 @@
         <v>45</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3.75</v>
       </c>
       <c r="E40" s="28">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F40" s="31" t="str">
-        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A40), "", VLOOKUP($A40,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
       </c>
     </row>
@@ -5356,22 +5934,22 @@
         <v>66</v>
       </c>
       <c r="B41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C41" s="28">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D41" s="28">
         <v>1</v>
       </c>
       <c r="E41" s="28" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F41" s="31" t="str">
-        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A41), "", VLOOKUP($A41,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Get sprites to use in game</v>
       </c>
     </row>
@@ -5380,23 +5958,23 @@
         <v>71</v>
       </c>
       <c r="B42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D42" s="28">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E42" s="28" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F42" s="31" t="str">
-        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A42), "", VLOOKUP($A42,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update game management to to World-&gt;Map-&gt;Entites</v>
       </c>
     </row>
@@ -5405,23 +5983,23 @@
         <v>78</v>
       </c>
       <c r="B43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D43" s="28">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E43" s="28" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F43" s="31" t="str">
-        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A43), "", VLOOKUP($A43,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update cursor logic to exist withing a Cursor class</v>
       </c>
     </row>
@@ -5430,23 +6008,23 @@
         <v>79</v>
       </c>
       <c r="B44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D44" s="28">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E44" s="28" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F44" s="31" t="str">
-        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A44), "", VLOOKUP($A44,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add different states to cursor</v>
       </c>
     </row>
@@ -5455,23 +6033,23 @@
         <v>80</v>
       </c>
       <c r="B45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D45" s="28">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E45" s="28" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F45" s="31" t="str">
-        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A45), "", VLOOKUP($A45,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update Cursor logic to allow easier modification</v>
       </c>
     </row>
@@ -5480,23 +6058,23 @@
         <v>81</v>
       </c>
       <c r="B46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D46" s="28">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E46" s="28" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F46" s="31" t="str">
-        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A46), "", VLOOKUP($A46,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update Player logic to allow for easier modification</v>
       </c>
     </row>
@@ -5505,23 +6083,23 @@
         <v>82</v>
       </c>
       <c r="B47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D47" s="28">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E47" s="28" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F47" s="31" t="str">
-        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A47), "", VLOOKUP($A47,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Update entities to render sprites</v>
       </c>
     </row>
@@ -5530,23 +6108,23 @@
         <v>77</v>
       </c>
       <c r="B48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D48" s="28">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E48" s="28" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F48" s="31" t="str">
-        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A48), "", VLOOKUP($A48,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Cursor SpriteSheet</v>
       </c>
     </row>
@@ -5555,23 +6133,23 @@
         <v>83</v>
       </c>
       <c r="B49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D49" s="28">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E49" s="28" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F49" s="31" t="str">
-        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A49), "", VLOOKUP($A49,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Animate Player actions</v>
       </c>
     </row>
@@ -5580,29 +6158,29 @@
         <v>84</v>
       </c>
       <c r="B50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D50" s="28">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E50" s="28" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F50" s="31" t="str">
-        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A50), "", VLOOKUP($A50,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Find an effective way to use external sprite sheets not in out typical format</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="42">
         <v>44018</v>
@@ -5620,23 +6198,23 @@
         <v>3</v>
       </c>
       <c r="B52" s="28" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C52" s="28">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D52" s="28">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E52" s="28">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>19</v>
       </c>
       <c r="F52" s="31" t="str">
-        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A52), "", VLOOKUP($A52,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Item class</v>
       </c>
     </row>
@@ -5645,23 +6223,23 @@
         <v>4</v>
       </c>
       <c r="B53" s="28" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C53" s="28">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D53" s="28">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E53" s="28">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>22</v>
       </c>
       <c r="F53" s="31" t="str">
-        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A53), "", VLOOKUP($A53,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an XML format to create items</v>
       </c>
     </row>
@@ -5670,23 +6248,23 @@
         <v>8</v>
       </c>
       <c r="B54" s="28" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C54" s="28">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="D54" s="28">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E54" s="28">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>34</v>
       </c>
       <c r="F54" s="31" t="str">
-        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A54), "", VLOOKUP($A54,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Allow entities to hold an "infinite" number of items</v>
       </c>
     </row>
@@ -5695,23 +6273,23 @@
         <v>9</v>
       </c>
       <c r="B55" s="28" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C55" s="28">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="D55" s="28">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.5</v>
       </c>
       <c r="E55" s="28">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>35</v>
       </c>
       <c r="F55" s="31" t="str">
-        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A55), "", VLOOKUP($A55,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>store number of item type { [1,Axe], [1,Arrow], [2,Sword] }</v>
       </c>
     </row>
@@ -5720,23 +6298,23 @@
         <v>98</v>
       </c>
       <c r="B56" s="28" t="str">
-        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C56" s="28">
-        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0</v>
       </c>
       <c r="D56" s="28">
-        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E56" s="28" t="str">
-        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F56" s="31" t="str">
-        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A56), "", VLOOKUP($A56,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add Ability key to ability UI box</v>
       </c>
     </row>
@@ -5745,23 +6323,23 @@
         <v>14</v>
       </c>
       <c r="B57" s="28" t="str">
-        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C57" s="28">
-        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D57" s="28">
-        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>0.25</v>
       </c>
       <c r="E57" s="28">
-        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>20</v>
       </c>
       <c r="F57" s="31" t="str">
-        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A57), "", VLOOKUP($A57,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement item stats that effect the entity if held</v>
       </c>
     </row>
@@ -5770,21 +6348,21 @@
         <v>92</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="28">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D58" s="28">
         <v>0.5</v>
       </c>
       <c r="E58" s="28" t="str">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F58" s="31" t="str">
-        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A58), "", VLOOKUP($A58,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Creat UI button for menus</v>
       </c>
     </row>
@@ -5793,21 +6371,21 @@
         <v>93</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="28">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D59" s="28">
         <v>0.5</v>
       </c>
       <c r="E59" s="28" t="str">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F59" s="31" t="str">
-        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A59), "", VLOOKUP($A59,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</v>
       </c>
     </row>
@@ -5816,27 +6394,27 @@
         <v>94</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="28">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D60" s="28">
         <v>0.5</v>
       </c>
       <c r="E60" s="28" t="str">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F60" s="31" t="str">
-        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A60), "", VLOOKUP($A60,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create main menu</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="42">
         <v>44019</v>
@@ -5854,22 +6432,22 @@
         <v>92</v>
       </c>
       <c r="B62" s="28" t="str">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C62" s="28">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D62" s="28">
         <v>0.5</v>
       </c>
       <c r="E62" s="28" t="str">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F62" s="31" t="str">
-        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A62), "", VLOOKUP($A62,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Creat UI button for menus</v>
       </c>
     </row>
@@ -5878,21 +6456,21 @@
         <v>94</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="28">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D63" s="28">
         <v>0.5</v>
       </c>
       <c r="E63" s="28" t="str">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F63" s="31" t="str">
-        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A63), "", VLOOKUP($A63,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create main menu</v>
       </c>
     </row>
@@ -5901,79 +6479,79 @@
         <v>24</v>
       </c>
       <c r="B64" s="28" t="str">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="D64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="E64" s="28">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>3</v>
       </c>
       <c r="F64" s="31" t="str">
-        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A64), "", VLOOKUP($A64,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Create a menu that allows the player to choose 4 abilites from a catalog of abilities</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>86</v>
       </c>
       <c r="B65" s="28" t="str">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="D65" s="28">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1</v>
       </c>
       <c r="E65" s="28" t="str">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F65" s="31" t="str">
-        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A65), "", VLOOKUP($A65,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add attack move cursor state</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>87</v>
       </c>
       <c r="B66" s="28" t="str">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>2</v>
       </c>
       <c r="D66" s="28">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>1.5</v>
       </c>
       <c r="E66" s="28" t="str">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>-</v>
       </c>
       <c r="F66" s="31" t="str">
-        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A66), "", VLOOKUP($A66,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Add player attack move state</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="42">
         <v>44024</v>
@@ -5982,19 +6560,16 @@
       <c r="D67" s="41"/>
       <c r="E67" s="43"/>
       <c r="F67" s="44" t="str">
-        <f>"Hours Worked: " &amp; SUM(D68:D72)</f>
-        <v>Hours Worked: 5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <f>"Hours Worked: " &amp; SUM(D68:D68)</f>
+        <v>Hours Worked: 3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45</v>
       </c>
       <c r="B68" s="28" t="str">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$196, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v>Completed</v>
       </c>
       <c r="C68" s="28">
@@ -6004,182 +6579,316 @@
         <v>3</v>
       </c>
       <c r="E68" s="28">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>36</v>
       </c>
       <c r="F68" s="31" t="str">
-        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$200, COLUMN()))</f>
+        <f>IF( ISBLANK($A68), "", VLOOKUP($A68,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v>Implement an entrance and exit functionality for the player to travel from floor to floor</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="28" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$196, COLUMN()))</f>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="42">
+        <v>44025</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D70:D78)</f>
+        <v>Hours Worked: 9.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>35</v>
+      </c>
+      <c r="B70" s="28" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C70" s="28">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="28">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E70" s="28">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>29</v>
+      </c>
+      <c r="F70" s="31" t="str">
+        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create quick melee weak enemy type</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>37</v>
+      </c>
+      <c r="B71" s="28" t="str">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C71" s="28">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D71" s="28">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E71" s="28">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>30</v>
+      </c>
+      <c r="F71" s="31" t="str">
+        <f>IF( ISBLANK($A71), "", VLOOKUP($A71,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement simple AI for enemy to move and attack the player</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>44</v>
+      </c>
+      <c r="B72" s="28" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C72" s="28">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D72" s="28">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E72" s="28">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>38</v>
+      </c>
+      <c r="F72" s="31" t="str">
+        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement the ability for the player to pick up items by running over them</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>46</v>
+      </c>
+      <c r="B73" s="28" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C73" s="28">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="28">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="28">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>36</v>
+      </c>
+      <c r="F73" s="31" t="str">
+        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement functionality for the player to return to the main menu upon losing all of their health</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>58</v>
+      </c>
+      <c r="B74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C74" s="28">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D74" s="28">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E74" s="28" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>3, 16</v>
+      </c>
+      <c r="F74" s="31" t="str">
+        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement Projectile Ability type</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>59</v>
+      </c>
+      <c r="B75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C75" s="28">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="28">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E75" s="28" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>3, 16</v>
+      </c>
+      <c r="F75" s="31" t="str">
+        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Implement targeted ability type</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>88</v>
+      </c>
+      <c r="B76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C76" s="28">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D76" s="28">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.75</v>
+      </c>
+      <c r="E76" s="28" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F76" s="31" t="str">
+        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Add a raycast for line of sight logic</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>93</v>
+      </c>
+      <c r="B77" s="28" t="str">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C77" s="28">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D77" s="28">
+        <v>1</v>
+      </c>
+      <c r="E77" s="28" t="str">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F77" s="31" t="str">
+        <f>IF( ISBLANK($A77), "", VLOOKUP($A77,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create Game management of states MENU-&gt;PLAYING-&gt;LOSE-&gt;MENU</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>95</v>
+      </c>
+      <c r="B78" s="28" t="str">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C78" s="28">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="D78" s="28">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E78" s="28" t="str">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F78" s="31" t="str">
+        <f>IF( ISBLANK($A78), "", VLOOKUP($A78,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create pause menu</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="28" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v/>
       </c>
-      <c r="C69" s="28" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="C79" s="28" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="D69" s="28">
-        <v>2</v>
-      </c>
-      <c r="E69" s="28" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="D79" s="28" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="F69" s="31" t="str">
-        <f>IF( ISBLANK($A69), "", VLOOKUP($A69,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E79" s="28" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="28" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$196, COLUMN()))</f>
+      <c r="F79" s="31" t="str">
+        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="C70" s="28" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="28" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v/>
       </c>
-      <c r="D70" s="28" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="C80" s="28" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="E70" s="28" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="D80" s="28" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="F70" s="31" t="str">
-        <f>IF( ISBLANK($A70), "", VLOOKUP($A70,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E80" s="28" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="42">
-        <v>44025</v>
-      </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="44" t="str">
-        <f>"Hours Worked: " &amp; SUM(D72:D76)</f>
-        <v>Hours Worked: 0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$196, COLUMN()))</f>
+      <c r="F80" s="31" t="str">
+        <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="C72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="28" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$203, COLUMN()))</f>
         <v/>
       </c>
-      <c r="D72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="C81" s="28" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="E72" s="28" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="D81" s="28" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-      <c r="F72" s="31" t="str">
-        <f>IF( ISBLANK($A72), "", VLOOKUP($A72,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="E81" s="28" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$196, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E73" s="28" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F73" s="31" t="str">
-        <f>IF( ISBLANK($A73), "", VLOOKUP($A73,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$196, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E74" s="28" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F74" s="31" t="str">
-        <f>IF( ISBLANK($A74), "", VLOOKUP($A74,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$196, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E75" s="28" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F75" s="31" t="str">
-        <f>IF( ISBLANK($A75), "", VLOOKUP($A75,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$196, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E76" s="28" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F76" s="31" t="str">
-        <f>IF( ISBLANK($A76), "", VLOOKUP($A76,Backlog!$A$2:$F$200, COLUMN()))</f>
+      <c r="F81" s="31" t="str">
+        <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
         <v/>
       </c>
     </row>
@@ -6195,7 +6904,7 @@
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10 B22:B35 B62:B66 B68:B70 B72:B76">
+  <conditionalFormatting sqref="B3:B10 B22:B35 B62:B66 B68 B70:B81">
     <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -6306,24 +7015,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6333,11 +7042,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A181A4A-4DDC-43C7-AE99-DE5692A5CCCA}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6376,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="18">
         <v>1.5</v>
@@ -6397,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="18">
         <v>0.5</v>
@@ -6418,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
@@ -6439,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="18">
         <v>0.5</v>
@@ -6460,7 +7169,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="18">
         <v>0.75</v>
@@ -6472,7 +7181,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6481,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18">
         <v>1.5</v>
@@ -6502,7 +7211,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="18">
         <v>0.25</v>
@@ -6523,7 +7232,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18">
         <v>0.25</v>
@@ -6544,7 +7253,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18">
         <v>0.5</v>
@@ -6565,7 +7274,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="18">
         <v>2.5</v>
@@ -6586,7 +7295,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18">
         <v>1.5</v>
@@ -6607,7 +7316,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="18">
         <v>1</v>
@@ -6628,7 +7337,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="18">
         <v>1</v>
@@ -6647,7 +7356,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="18">
         <v>1</v>
@@ -6668,7 +7377,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
@@ -6687,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
@@ -6697,7 +7406,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6706,7 +7415,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
@@ -6727,7 +7436,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="19">
         <v>2</v>
@@ -6746,7 +7455,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="20">
         <v>0.5</v>
@@ -6765,7 +7474,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="20">
         <v>0.5</v>
@@ -6784,7 +7493,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -6803,7 +7512,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="20">
         <v>1.5</v>
@@ -6822,7 +7531,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="20">
         <v>1</v>
@@ -6841,7 +7550,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="20">
         <v>1.5</v>
@@ -6853,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6862,7 +7571,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="20">
         <v>0.5</v>
@@ -6881,7 +7590,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="20">
         <v>0.5</v>
@@ -6900,7 +7609,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="20">
         <v>1</v>
@@ -6919,7 +7628,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="20">
         <v>0.5</v>
@@ -6940,7 +7649,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="20">
         <v>0.5</v>
@@ -6961,7 +7670,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="20">
         <v>1</v>
@@ -6982,7 +7691,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="20">
         <v>2</v>
@@ -7001,7 +7710,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="20">
         <v>0.75</v>
@@ -7058,12 +7767,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C36" s="20">
         <v>1</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="16">
+        <v>2</v>
+      </c>
       <c r="E36" s="13">
         <v>29</v>
       </c>
@@ -7096,12 +7807,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C38" s="20">
         <v>1.5</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
       <c r="E38" s="13">
         <v>30</v>
       </c>
@@ -7115,7 +7828,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="19">
         <v>2</v>
@@ -7134,7 +7847,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="20">
         <v>2</v>
@@ -7155,7 +7868,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="20">
         <v>1.5</v>
@@ -7174,7 +7887,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="20">
         <v>0.5</v>
@@ -7193,7 +7906,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="20">
         <v>0.5</v>
@@ -7212,7 +7925,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="20">
         <v>1</v>
@@ -7231,12 +7944,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C45" s="20">
         <v>1</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="16">
+        <v>1</v>
+      </c>
       <c r="E45" s="13">
         <v>38</v>
       </c>
@@ -7250,7 +7965,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="20">
         <v>1</v>
@@ -7271,12 +7986,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C47" s="20">
         <v>1</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="16">
+        <v>0.5</v>
+      </c>
       <c r="E47" s="13">
         <v>36</v>
       </c>
@@ -7309,7 +8026,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="20">
         <v>1</v>
@@ -7328,7 +8045,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="20">
         <v>2</v>
@@ -7347,7 +8064,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="20">
         <v>2</v>
@@ -7376,7 +8093,7 @@
         <v>37</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7395,7 +8112,7 @@
         <v>37</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7411,10 +8128,10 @@
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7430,10 +8147,10 @@
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7449,15 +8166,15 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" s="63"/>
       <c r="C57" s="64"/>
@@ -7471,7 +8188,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="27">
         <v>1</v>
@@ -7480,10 +8197,10 @@
         <v>2</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7492,7 +8209,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="18">
         <v>1</v>
@@ -7501,10 +8218,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7513,17 +8230,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C60" s="18">
         <v>1</v>
       </c>
-      <c r="D60" s="16"/>
+      <c r="D60" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E60" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7532,17 +8251,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C61" s="18">
         <v>1</v>
       </c>
-      <c r="D61" s="16"/>
+      <c r="D61" s="16">
+        <v>0.75</v>
+      </c>
       <c r="E61" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7551,7 +8272,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="18">
         <v>1</v>
@@ -7560,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7569,7 +8290,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="18">
         <v>1.5</v>
@@ -7581,7 +8302,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7590,7 +8311,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="13">
         <v>1</v>
@@ -7599,10 +8320,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7611,7 +8332,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="13">
         <v>1</v>
@@ -7620,15 +8341,15 @@
         <v>1</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="63"/>
       <c r="C66" s="63"/>
@@ -7642,7 +8363,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="23">
         <v>1</v>
@@ -7651,10 +8372,10 @@
         <v>0.5</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -7663,7 +8384,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="13">
         <v>1</v>
@@ -7672,10 +8393,10 @@
         <v>1.5</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7684,7 +8405,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="13">
         <v>1</v>
@@ -7693,10 +8414,10 @@
         <v>2</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7705,7 +8426,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="13">
         <v>0.5</v>
@@ -7714,10 +8435,10 @@
         <v>0.5</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7726,7 +8447,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="13">
         <v>0.5</v>
@@ -7735,10 +8456,10 @@
         <v>0.5</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7747,7 +8468,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="13">
         <v>0.5</v>
@@ -7756,10 +8477,10 @@
         <v>0.5</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -7768,7 +8489,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="13">
         <v>1</v>
@@ -7777,10 +8498,10 @@
         <v>0.75</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7789,7 +8510,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="13">
         <v>0.5</v>
@@ -7798,10 +8519,10 @@
         <v>0.25</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7810,7 +8531,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="13">
         <v>0.75</v>
@@ -7819,10 +8540,10 @@
         <v>0.75</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7831,7 +8552,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="13">
         <v>0.75</v>
@@ -7840,10 +8561,10 @@
         <v>0.5</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -7852,7 +8573,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="13">
         <v>0.25</v>
@@ -7861,10 +8582,10 @@
         <v>0.25</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -7873,7 +8594,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="13">
         <v>0</v>
@@ -7882,10 +8603,10 @@
         <v>0.75</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -7894,7 +8615,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="13">
         <v>2</v>
@@ -7903,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7915,7 +8636,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C80" s="13">
         <v>0</v>
@@ -7924,10 +8645,10 @@
         <v>0.5</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -7936,7 +8657,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C81" s="13">
         <v>0.5</v>
@@ -7945,10 +8666,10 @@
         <v>0.5</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7957,7 +8678,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C82" s="13">
         <v>0.5</v>
@@ -7966,10 +8687,10 @@
         <v>0.25</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -7978,7 +8699,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="13">
         <v>0.5</v>
@@ -7987,10 +8708,10 @@
         <v>0.5</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -7999,7 +8720,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C84" s="13">
         <v>0.5</v>
@@ -8008,10 +8729,10 @@
         <v>0.5</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8020,7 +8741,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="13">
         <v>2</v>
@@ -8029,10 +8750,10 @@
         <v>1</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -8041,7 +8762,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C86" s="13">
         <v>0</v>
@@ -8050,10 +8771,10 @@
         <v>1.5</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -8062,7 +8783,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C87" s="13">
         <v>0</v>
@@ -8071,10 +8792,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8083,7 +8804,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C88" s="13">
         <v>0</v>
@@ -8092,10 +8813,10 @@
         <v>0.25</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8104,7 +8825,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C89" s="23">
         <v>1</v>
@@ -8113,10 +8834,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -8125,7 +8846,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="13">
         <v>2</v>
@@ -8134,10 +8855,10 @@
         <v>1.5</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -8146,16 +8867,19 @@
         <v>88</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C91" s="13">
         <v>1.5</v>
       </c>
+      <c r="D91" s="8">
+        <v>0.75</v>
+      </c>
       <c r="E91" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -8170,10 +8894,10 @@
         <v>3</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8188,10 +8912,10 @@
         <v>2</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,10 +8930,10 @@
         <v>1.5</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -8218,7 +8942,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="13">
         <v>1</v>
@@ -8227,10 +8951,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -8239,19 +8963,19 @@
         <v>93</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C96" s="13">
         <v>1.5</v>
       </c>
       <c r="D96" s="8">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -8260,7 +8984,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C97" s="13">
         <v>1.5</v>
@@ -8269,10 +8993,10 @@
         <v>1</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -8281,16 +9005,19 @@
         <v>95</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C98" s="13">
         <v>1.5</v>
       </c>
+      <c r="D98" s="8">
+        <v>1</v>
+      </c>
       <c r="E98" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -8305,10 +9032,10 @@
         <v>1</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -8323,15 +9050,15 @@
         <v>1</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="63"/>
       <c r="C101" s="63"/>
@@ -8345,7 +9072,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C102" s="23">
         <v>0</v>
@@ -8354,65 +9081,154 @@
         <v>0.25</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <f>ROW() - 4</f>
+        <v>99</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="13">
+        <v>2</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <f t="shared" ref="A104:A105" si="3">ROW() - 4</f>
+        <v>100</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="13">
+        <v>2</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="13">
+        <v>2</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="9" t="s">
+      <c r="D112" s="16">
+        <f>SUMIF(B2:B110, "&lt;&gt;Deleted",C2:C110)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="16">
-        <f>SUMIF(B2:B103, "&lt;&gt;Deleted",C2:C103)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" s="16">
-        <f>SUM(D2:D103)</f>
-        <v>47.75</v>
+      <c r="D113" s="16">
+        <f>SUM(D2:D110)</f>
+        <v>57.25</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B100 B103:B1048576">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+  <conditionalFormatting sqref="B1:B100 B110:B1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F100">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B2="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101:B102">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="B101:B109">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:F102">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="A101:F109">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B101="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TheTrial/Docs/ProgressTracking.xlsx
+++ b/TheTrial/Docs/ProgressTracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\TheTrial\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF273F5-3242-4E79-9338-A5F566562CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D1506-BD4E-4830-9439-9E9E7477FC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{603EAEDC-D363-457D-B800-748B64D3B649}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{603EAEDC-D363-457D-B800-748B64D3B649}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="184">
   <si>
     <t>Task ID</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>Write save state to XML</t>
+  </si>
+  <si>
+    <t>Update Ability Select Menu to be navigable with mouse</t>
+  </si>
+  <si>
+    <t>Display item stats when hovered</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2396,11 +2432,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D356B3F-B2FC-4492-B6C6-3B09C1815C2E}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F96:F98"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" activeCellId="4" sqref="A95:A96 A99:A100 A104:A105 A102 A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3760,7 +3796,7 @@
       </c>
       <c r="F57" s="59" t="str">
         <f>"Total Hours Completed: " &amp; SUM(D59:D89)</f>
-        <v>Total Hours Completed: 22</v>
+        <v>Total Hours Completed: 25.5</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="40" customFormat="1" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4281,7 +4317,7 @@
       </c>
       <c r="B79" s="28" t="str">
         <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C79" s="28">
         <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4289,7 +4325,7 @@
       </c>
       <c r="D79" s="28">
         <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79" s="28" t="str">
         <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4306,7 +4342,7 @@
       </c>
       <c r="B80" s="28" t="str">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C80" s="28">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4314,7 +4350,7 @@
       </c>
       <c r="D80" s="28">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E80" s="28" t="str">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4558,8 +4594,8 @@
         <v>44032</v>
       </c>
       <c r="F91" s="79" t="str">
-        <f>"Total Hours Completed: " &amp; SUM(D93:D123)</f>
-        <v>Total Hours Completed: 0</v>
+        <f>"Total Hours Completed: " &amp; SUM(D93:D105)</f>
+        <v>Total Hours Completed: 12</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4643,7 +4679,7 @@
       </c>
       <c r="B95" s="39" t="str">
         <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C95" s="39">
         <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4651,7 +4687,7 @@
       </c>
       <c r="D95" s="39">
         <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" s="39" t="str">
         <f>IF( ISBLANK($A95), "", VLOOKUP($A95,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4668,7 +4704,7 @@
       </c>
       <c r="B96" s="39" t="str">
         <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C96" s="39">
         <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4676,7 +4712,7 @@
       </c>
       <c r="D96" s="39">
         <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E96" s="39" t="str">
         <f>IF( ISBLANK($A96), "", VLOOKUP($A96,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4743,7 +4779,7 @@
       </c>
       <c r="B99" s="39" t="str">
         <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C99" s="39">
         <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4751,7 +4787,7 @@
       </c>
       <c r="D99" s="39">
         <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99" s="39" t="str">
         <f>IF( ISBLANK($A99), "", VLOOKUP($A99,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4768,7 +4804,7 @@
       </c>
       <c r="B100" s="39" t="str">
         <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C100" s="39">
         <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4776,7 +4812,7 @@
       </c>
       <c r="D100" s="39">
         <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E100" s="39" t="str">
         <f>IF( ISBLANK($A100), "", VLOOKUP($A100,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4818,7 +4854,7 @@
       </c>
       <c r="B102" s="39" t="str">
         <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C102" s="39">
         <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4826,7 +4862,7 @@
       </c>
       <c r="D102" s="39">
         <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E102" s="39" t="str">
         <f>IF( ISBLANK($A102), "", VLOOKUP($A102,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4843,7 +4879,7 @@
       </c>
       <c r="B103" s="39" t="str">
         <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>Not Started</v>
+        <v>Completed</v>
       </c>
       <c r="C103" s="39">
         <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4851,7 +4887,7 @@
       </c>
       <c r="D103" s="39">
         <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="39" t="str">
         <f>IF( ISBLANK($A103), "", VLOOKUP($A103,Backlog!$A$2:$F$207, COLUMN()))</f>
@@ -4862,112 +4898,162 @@
         <v>Bug Fixing</v>
       </c>
     </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="B104" s="39" t="str">
+        <f>IF( ISBLANK($A104), "", VLOOKUP($A104,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C104" s="39">
+        <f>IF( ISBLANK($A104), "", VLOOKUP($A104,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D104" s="39">
+        <f>IF( ISBLANK($A104), "", VLOOKUP($A104,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E104" s="39" t="str">
+        <f>IF( ISBLANK($A104), "", VLOOKUP($A104,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F104" s="30" t="str">
+        <f>IF( ISBLANK($A104), "", VLOOKUP($A104,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Update Ability Select Menu to be navigable with mouse</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" s="39" t="str">
+        <f>IF( ISBLANK($A105), "", VLOOKUP($A105,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C105" s="39">
+        <f>IF( ISBLANK($A105), "", VLOOKUP($A105,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D105" s="39">
+        <f>IF( ISBLANK($A105), "", VLOOKUP($A105,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E105" s="39" t="str">
+        <f>IF( ISBLANK($A105), "", VLOOKUP($A105,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F105" s="30" t="str">
+        <f>IF( ISBLANK($A105), "", VLOOKUP($A105,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Display item stats when hovered</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B3 B29:B30">
-    <cfRule type="cellIs" dxfId="74" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="29" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="30" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="31" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4 B4:B28">
-    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="26" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="28" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B55">
-    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F87 A89">
-    <cfRule type="expression" dxfId="65" priority="19">
+    <cfRule type="expression" dxfId="68" priority="19">
       <formula>$B1="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="18" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B87">
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="13" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="15" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:F89">
-    <cfRule type="expression" dxfId="58" priority="12">
+    <cfRule type="expression" dxfId="61" priority="12">
       <formula>$B88="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B89">
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:F91">
-    <cfRule type="expression" dxfId="54" priority="8">
+    <cfRule type="expression" dxfId="57" priority="8">
       <formula>$B91="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92:F103">
-    <cfRule type="expression" dxfId="50" priority="4">
+  <conditionalFormatting sqref="B92:F105">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>$B92="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B103">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+  <conditionalFormatting sqref="B92:B105">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4978,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B1D0D5-8BE9-4C2F-A748-65963B5C1812}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6827,106 +6913,266 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$203, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="E79" s="28" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="F79" s="31" t="str">
-        <f>IF( ISBLANK($A79), "", VLOOKUP($A79,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
+      <c r="A79" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="42">
+        <v>44032</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="44" t="str">
+        <f>"Hours Worked: " &amp; SUM(D80:D88)</f>
+        <v>Hours Worked: 12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>90</v>
+      </c>
       <c r="B80" s="28" t="str">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$203, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C80" s="28" t="str">
+        <v>Completed</v>
+      </c>
+      <c r="C80" s="28">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D80" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="D80" s="28">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E80" s="28" t="str">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F80" s="31" t="str">
         <f>IF( ISBLANK($A80), "", VLOOKUP($A80,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+        <v>Get Audio assets for: BGM, PlayerAttack, EnemyAttack, pick up Item</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>91</v>
+      </c>
       <c r="B81" s="28" t="str">
         <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$203, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="C81" s="28" t="str">
+        <v>Completed</v>
+      </c>
+      <c r="C81" s="28">
         <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
-      </c>
-      <c r="D81" s="28" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="D81" s="28">
         <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="E81" s="28" t="str">
         <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F81" s="31" t="str">
         <f>IF( ISBLANK($A81), "", VLOOKUP($A81,Backlog!$A$2:$F$207, COLUMN()))</f>
-        <v/>
+        <v>Implement playing audio on actions</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>99</v>
+      </c>
+      <c r="B82" s="28" t="str">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C82" s="28">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D82" s="28">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E82" s="28" t="str">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F82" s="31" t="str">
+        <f>IF( ISBLANK($A82), "", VLOOKUP($A82,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create 2 Additional Maps</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>100</v>
+      </c>
+      <c r="B83" s="28" t="str">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C83" s="28">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D83" s="28">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="28" t="str">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F83" s="31" t="str">
+        <f>IF( ISBLANK($A83), "", VLOOKUP($A83,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Create Additional Items</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>54</v>
+      </c>
+      <c r="B84" s="28" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C84" s="28">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>10</v>
+      </c>
+      <c r="D84" s="28">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E84" s="28" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F84" s="31" t="str">
+        <f>IF( ISBLANK($A84), "", VLOOKUP($A84,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Polish</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>55</v>
+      </c>
+      <c r="B85" s="28" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C85" s="28">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>10</v>
+      </c>
+      <c r="D85" s="28">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="E85" s="28" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F85" s="31" t="str">
+        <f>IF( ISBLANK($A85), "", VLOOKUP($A85,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Bug Fixing</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>102</v>
+      </c>
+      <c r="B86" s="28" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C86" s="28">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="D86" s="28">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>2</v>
+      </c>
+      <c r="E86" s="28" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F86" s="31" t="str">
+        <f>IF( ISBLANK($A86), "", VLOOKUP($A86,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Update Ability Select Menu to be navigable with mouse</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>103</v>
+      </c>
+      <c r="B87" s="28" t="str">
+        <f>IF( ISBLANK($A87), "", VLOOKUP($A87,Backlog!$A$2:$F$203, COLUMN()))</f>
+        <v>Completed</v>
+      </c>
+      <c r="C87" s="28">
+        <f>IF( ISBLANK($A87), "", VLOOKUP($A87,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1</v>
+      </c>
+      <c r="D87" s="28">
+        <f>IF( ISBLANK($A87), "", VLOOKUP($A87,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E87" s="28" t="str">
+        <f>IF( ISBLANK($A87), "", VLOOKUP($A87,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>-</v>
+      </c>
+      <c r="F87" s="31" t="str">
+        <f>IF( ISBLANK($A87), "", VLOOKUP($A87,Backlog!$A$2:$F$207, COLUMN()))</f>
+        <v>Display item stats when hovered</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B10 B22:B35 B62:B66 B68 B70:B78 B80:B87">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
-      <formula>"In Progress"</formula>
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10 B22:B35 B62:B66 B68 B70:B81">
+  <conditionalFormatting sqref="B11">
     <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
-      <formula>"In Progress"</formula>
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
-      <formula>"Completed"</formula>
+      <formula>"In Progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B13:B20">
     <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
-      <formula>"Completed"</formula>
+      <formula>"In Progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
-      <formula>"In Progress"</formula>
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B20">
+  <conditionalFormatting sqref="B12">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -6937,18 +7183,18 @@
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B21">
     <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
-      <formula>"In Progress"</formula>
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
-      <formula>"Completed"</formula>
+      <formula>"In Progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="B36">
     <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
@@ -6959,62 +7205,62 @@
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+  <conditionalFormatting sqref="B37:B50">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B50">
+  <conditionalFormatting sqref="B51">
     <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
-      <formula>"In Progress"</formula>
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
-      <formula>"Completed"</formula>
+      <formula>"In Progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B52:B60">
     <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
-      <formula>"Completed"</formula>
+      <formula>"In Progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
-      <formula>"In Progress"</formula>
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B60">
+  <conditionalFormatting sqref="B61">
     <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
-      <formula>"In Progress"</formula>
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
-      <formula>"Completed"</formula>
+      <formula>"In Progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+  <conditionalFormatting sqref="B67">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+  <conditionalFormatting sqref="B69">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
@@ -7025,14 +7271,14 @@
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="B79">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7045,8 +7291,8 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8140,12 +8386,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C55" s="20">
         <v>10</v>
       </c>
-      <c r="D55" s="16"/>
+      <c r="D55" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E55" s="13" t="s">
         <v>56</v>
       </c>
@@ -8159,12 +8407,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C56" s="20">
         <v>10</v>
       </c>
-      <c r="D56" s="16"/>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
       <c r="E56" s="13" t="s">
         <v>56</v>
       </c>
@@ -8906,9 +9156,12 @@
         <v>90</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C93" s="13">
+        <v>2</v>
+      </c>
+      <c r="D93" s="8">
         <v>2</v>
       </c>
       <c r="E93" s="13" t="s">
@@ -8924,9 +9177,12 @@
         <v>91</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C94" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D94" s="8">
         <v>1.5</v>
       </c>
       <c r="E94" s="13" t="s">
@@ -9093,12 +9349,14 @@
         <v>99</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C103" s="13">
         <v>2</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="D103" s="8">
+        <v>2</v>
+      </c>
       <c r="E103" s="13" t="s">
         <v>56</v>
       </c>
@@ -9112,12 +9370,14 @@
         <v>100</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C104" s="13">
         <v>2</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E104" s="13" t="s">
         <v>56</v>
       </c>
@@ -9145,20 +9405,44 @@
       </c>
     </row>
     <row r="106" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="10"/>
+      <c r="A106" s="7">
+        <v>102</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="13">
+        <v>2</v>
+      </c>
+      <c r="D106" s="8">
+        <v>2</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="107" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="10"/>
+      <c r="A107" s="7">
+        <v>103</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="108" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
@@ -9187,7 +9471,7 @@
       </c>
       <c r="D112" s="16">
         <f>SUMIF(B2:B110, "&lt;&gt;Deleted",C2:C110)</f>
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
@@ -9196,39 +9480,39 @@
       </c>
       <c r="D113" s="16">
         <f>SUM(D2:D110)</f>
-        <v>57.25</v>
+        <v>69.25</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B100 B110:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F100">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$B2="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:F109">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$B101="Deleted"</formula>
     </cfRule>
   </conditionalFormatting>
